--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -587,6 +590,9 @@
   </si>
   <si>
     <t>['62', '90+12']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1619,7 +1625,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1700,7 +1706,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1825,7 +1831,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1903,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -2237,7 +2243,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2443,7 +2449,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3757,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>0.71</v>
@@ -4297,7 +4303,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4503,7 +4509,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4709,7 +4715,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4915,7 +4921,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5327,7 +5333,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5405,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5533,7 +5539,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5739,7 +5745,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.32</v>
@@ -5945,7 +5951,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6151,7 +6157,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6232,7 +6238,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR26">
         <v>1.52</v>
@@ -6563,7 +6569,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6769,7 +6775,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6975,7 +6981,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7181,7 +7187,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7387,7 +7393,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7593,7 +7599,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7799,7 +7805,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8005,7 +8011,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8086,7 +8092,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR35">
         <v>2.59</v>
@@ -8289,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>2.14</v>
@@ -8623,7 +8629,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8829,7 +8835,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9035,7 +9041,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9241,7 +9247,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9319,7 +9325,7 @@
         <v>1.67</v>
       </c>
       <c r="AP41">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ41">
         <v>1.71</v>
@@ -10065,7 +10071,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10271,7 +10277,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10352,7 +10358,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ46">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR46">
         <v>1.09</v>
@@ -10477,7 +10483,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10683,7 +10689,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11095,7 +11101,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11507,7 +11513,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11713,7 +11719,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -11791,7 +11797,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
         <v>0.71</v>
@@ -12125,7 +12131,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12331,7 +12337,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12743,7 +12749,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12949,7 +12955,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13155,7 +13161,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13361,7 +13367,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13442,7 +13448,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -13773,7 +13779,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13979,7 +13985,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14185,7 +14191,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14391,7 +14397,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14597,7 +14603,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14803,7 +14809,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15215,7 +15221,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15421,7 +15427,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15502,7 +15508,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -15833,7 +15839,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16039,7 +16045,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16323,7 +16329,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ75">
         <v>0.57</v>
@@ -16451,7 +16457,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16532,7 +16538,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -17275,7 +17281,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17687,7 +17693,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18256,6 +18262,212 @@
       </c>
       <c r="BP84">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7580414</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45618.58333333334</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>78</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>141</v>
+      </c>
+      <c r="P85" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q85">
+        <v>4.75</v>
+      </c>
+      <c r="R85">
+        <v>2.3</v>
+      </c>
+      <c r="S85">
+        <v>2.2</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.5</v>
+      </c>
+      <c r="W85">
+        <v>1.5</v>
+      </c>
+      <c r="X85">
+        <v>5.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.13</v>
+      </c>
+      <c r="Z85">
+        <v>4</v>
+      </c>
+      <c r="AA85">
+        <v>3.5</v>
+      </c>
+      <c r="AB85">
+        <v>1.72</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>11</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4.33</v>
+      </c>
+      <c r="AG85">
+        <v>1.84</v>
+      </c>
+      <c r="AH85">
+        <v>1.87</v>
+      </c>
+      <c r="AI85">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>2.2</v>
+      </c>
+      <c r="AL85">
+        <v>1.18</v>
+      </c>
+      <c r="AM85">
+        <v>1.15</v>
+      </c>
+      <c r="AN85">
+        <v>1.29</v>
+      </c>
+      <c r="AO85">
+        <v>3</v>
+      </c>
+      <c r="AP85">
+        <v>1.25</v>
+      </c>
+      <c r="AQ85">
+        <v>2.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.4</v>
+      </c>
+      <c r="AS85">
+        <v>1.77</v>
+      </c>
+      <c r="AT85">
+        <v>3.17</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>6</v>
+      </c>
+      <c r="AX85">
+        <v>11</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>21</v>
+      </c>
+      <c r="BA85">
+        <v>1</v>
+      </c>
+      <c r="BB85">
+        <v>12</v>
+      </c>
+      <c r="BC85">
+        <v>13</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>1.95</v>
+      </c>
+      <c r="BL85">
+        <v>1.85</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,15 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['25', '34', '39', '60', '61', '77']</t>
+  </si>
+  <si>
+    <t>['7', '15', '33']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -593,6 +602,12 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['57', '90+3']</t>
+  </si>
+  <si>
+    <t>['40']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1625,7 +1640,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1831,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2118,7 +2133,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2243,7 +2258,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2449,7 +2464,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2527,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -2942,7 +2957,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3148,7 +3163,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3351,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3557,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3766,7 +3781,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -3972,7 +3987,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR15">
         <v>1.66</v>
@@ -4175,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4303,7 +4318,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4509,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4715,7 +4730,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4921,7 +4936,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5333,7 +5348,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5539,7 +5554,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5617,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5745,7 +5760,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>2.32</v>
@@ -5823,10 +5838,10 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ24">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR24">
         <v>2.32</v>
@@ -5951,7 +5966,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6032,7 +6047,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ25">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
@@ -6157,7 +6172,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6235,7 +6250,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
         <v>2.75</v>
@@ -6441,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6569,7 +6584,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6650,7 +6665,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -6775,7 +6790,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6981,7 +6996,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7187,7 +7202,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7393,7 +7408,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7474,7 +7489,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.05</v>
@@ -7599,7 +7614,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7677,7 +7692,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -7805,7 +7820,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7883,7 +7898,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8011,7 +8026,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8089,7 +8104,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>2.75</v>
@@ -8298,7 +8313,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>1.33</v>
@@ -8504,7 +8519,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.31</v>
@@ -8629,7 +8644,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8835,7 +8850,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -8913,7 +8928,7 @@
         <v>1.75</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9041,7 +9056,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9122,7 +9137,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ40">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9247,7 +9262,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9946,7 +9961,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10071,7 +10086,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10277,7 +10292,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10483,7 +10498,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10561,7 +10576,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
         <v>1.14</v>
@@ -10689,7 +10704,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10770,7 +10785,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -10973,10 +10988,10 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR49">
         <v>1.98</v>
@@ -11101,7 +11116,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11385,7 +11400,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11513,7 +11528,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11594,7 +11609,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR52">
         <v>1.7</v>
@@ -11719,7 +11734,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12003,7 +12018,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12131,7 +12146,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12212,7 +12227,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ55">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12337,7 +12352,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12415,7 +12430,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>1.71</v>
@@ -12621,10 +12636,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.64</v>
@@ -12749,7 +12764,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12955,7 +12970,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13161,7 +13176,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13367,7 +13382,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13651,7 +13666,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -13779,7 +13794,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13860,7 +13875,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ63">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.28</v>
@@ -13985,7 +14000,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14063,10 +14078,10 @@
         <v>0.8</v>
       </c>
       <c r="AP64">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ64">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.94</v>
@@ -14191,7 +14206,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14269,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14397,7 +14412,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14475,7 +14490,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -14603,7 +14618,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14684,7 +14699,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14809,7 +14824,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15093,10 +15108,10 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15221,7 +15236,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15299,7 +15314,7 @@
         <v>0.8</v>
       </c>
       <c r="AP70">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ70">
         <v>0.71</v>
@@ -15427,7 +15442,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15505,7 +15520,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>2.75</v>
@@ -15839,7 +15854,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -15920,7 +15935,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.7</v>
@@ -16045,7 +16060,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16332,7 +16347,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16457,7 +16472,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16741,7 +16756,7 @@
         <v>0.6</v>
       </c>
       <c r="AP77">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>0.57</v>
@@ -17281,7 +17296,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17693,7 +17708,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -17774,7 +17789,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ82">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18183,7 +18198,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -18278,7 +18293,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45618.58333333334</v>
+        <v>45617.875</v>
       </c>
       <c r="F85">
         <v>15</v>
@@ -18311,7 +18326,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18467,6 +18482,830 @@
         <v>0</v>
       </c>
       <c r="BP85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7580417</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>142</v>
+      </c>
+      <c r="P86" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q86">
+        <v>3.2</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.45</v>
+      </c>
+      <c r="AA86">
+        <v>3.4</v>
+      </c>
+      <c r="AB86">
+        <v>2.4</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.25</v>
+      </c>
+      <c r="AF86">
+        <v>3.6</v>
+      </c>
+      <c r="AG86">
+        <v>1.87</v>
+      </c>
+      <c r="AH86">
+        <v>1.95</v>
+      </c>
+      <c r="AI86">
+        <v>1.62</v>
+      </c>
+      <c r="AJ86">
+        <v>2.2</v>
+      </c>
+      <c r="AK86">
+        <v>1.5</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.45</v>
+      </c>
+      <c r="AN86">
+        <v>1.14</v>
+      </c>
+      <c r="AO86">
+        <v>0.71</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1.53</v>
+      </c>
+      <c r="AS86">
+        <v>1.35</v>
+      </c>
+      <c r="AT86">
+        <v>2.88</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>21</v>
+      </c>
+      <c r="AZ86">
+        <v>11</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>4</v>
+      </c>
+      <c r="BC86">
+        <v>12</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>1.8</v>
+      </c>
+      <c r="BL86">
+        <v>2</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7580416</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s">
+        <v>77</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>6</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>7</v>
+      </c>
+      <c r="O87" t="s">
+        <v>143</v>
+      </c>
+      <c r="P87" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q87">
+        <v>2.5</v>
+      </c>
+      <c r="R87">
+        <v>2.1</v>
+      </c>
+      <c r="S87">
+        <v>4.33</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.36</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>1.08</v>
+      </c>
+      <c r="Z87">
+        <v>1.93</v>
+      </c>
+      <c r="AA87">
+        <v>3.35</v>
+      </c>
+      <c r="AB87">
+        <v>3.3</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>7.1</v>
+      </c>
+      <c r="AE87">
+        <v>1.3</v>
+      </c>
+      <c r="AF87">
+        <v>3.3</v>
+      </c>
+      <c r="AG87">
+        <v>1.91</v>
+      </c>
+      <c r="AH87">
+        <v>1.91</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.91</v>
+      </c>
+      <c r="AK87">
+        <v>1.25</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.8</v>
+      </c>
+      <c r="AN87">
+        <v>1.43</v>
+      </c>
+      <c r="AO87">
+        <v>0.57</v>
+      </c>
+      <c r="AP87">
+        <v>1.63</v>
+      </c>
+      <c r="AQ87">
+        <v>0.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.42</v>
+      </c>
+      <c r="AS87">
+        <v>1.08</v>
+      </c>
+      <c r="AT87">
+        <v>2.5</v>
+      </c>
+      <c r="AU87">
+        <v>12</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>1</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>22</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7580413</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45619.47916666666</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P88" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q88">
+        <v>1.91</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>6.5</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.43</v>
+      </c>
+      <c r="AA88">
+        <v>4.1</v>
+      </c>
+      <c r="AB88">
+        <v>5.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>11</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.6</v>
+      </c>
+      <c r="AG88">
+        <v>1.92</v>
+      </c>
+      <c r="AH88">
+        <v>1.9</v>
+      </c>
+      <c r="AI88">
+        <v>2.1</v>
+      </c>
+      <c r="AJ88">
+        <v>1.67</v>
+      </c>
+      <c r="AK88">
+        <v>1.04</v>
+      </c>
+      <c r="AL88">
+        <v>1.15</v>
+      </c>
+      <c r="AM88">
+        <v>2.85</v>
+      </c>
+      <c r="AN88">
+        <v>1.14</v>
+      </c>
+      <c r="AO88">
+        <v>0.71</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.54</v>
+      </c>
+      <c r="AS88">
+        <v>1.35</v>
+      </c>
+      <c r="AT88">
+        <v>2.89</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>10</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>21</v>
+      </c>
+      <c r="AZ88">
+        <v>20</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>7</v>
+      </c>
+      <c r="BC88">
+        <v>14</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7580418</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45619.58333333334</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>144</v>
+      </c>
+      <c r="P89" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q89">
+        <v>2.75</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>3.75</v>
+      </c>
+      <c r="T89">
+        <v>1.4</v>
+      </c>
+      <c r="U89">
+        <v>2.75</v>
+      </c>
+      <c r="V89">
+        <v>2.75</v>
+      </c>
+      <c r="W89">
+        <v>1.4</v>
+      </c>
+      <c r="X89">
+        <v>7</v>
+      </c>
+      <c r="Y89">
+        <v>1.08</v>
+      </c>
+      <c r="Z89">
+        <v>2.03</v>
+      </c>
+      <c r="AA89">
+        <v>3.14</v>
+      </c>
+      <c r="AB89">
+        <v>3.03</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.5</v>
+      </c>
+      <c r="AG89">
+        <v>1.88</v>
+      </c>
+      <c r="AH89">
+        <v>1.92</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.33</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.66</v>
+      </c>
+      <c r="AN89">
+        <v>2.71</v>
+      </c>
+      <c r="AO89">
+        <v>2.14</v>
+      </c>
+      <c r="AP89">
+        <v>2.75</v>
+      </c>
+      <c r="AQ89">
+        <v>1.88</v>
+      </c>
+      <c r="AR89">
+        <v>1.8</v>
+      </c>
+      <c r="AS89">
+        <v>1.54</v>
+      </c>
+      <c r="AT89">
+        <v>3.34</v>
+      </c>
+      <c r="AU89">
+        <v>7</v>
+      </c>
+      <c r="AV89">
+        <v>7</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>5</v>
+      </c>
+      <c r="AY89">
+        <v>17</v>
+      </c>
+      <c r="AZ89">
+        <v>14</v>
+      </c>
+      <c r="BA89">
+        <v>8</v>
+      </c>
+      <c r="BB89">
+        <v>2</v>
+      </c>
+      <c r="BC89">
+        <v>10</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>1.95</v>
+      </c>
+      <c r="BL89">
+        <v>1.85</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,13 +442,16 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['7', '15', '33']</t>
+  </si>
+  <si>
+    <t>['25', '34', '39', '60', '61', '77']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
-    <t>['25', '34', '39', '60', '61', '77']</t>
-  </si>
-  <si>
-    <t>['7', '15', '33']</t>
+    <t>['21']</t>
   </si>
   <si>
     <t>['5', '42', '80', '90+2']</t>
@@ -604,10 +607,13 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['57', '90+3']</t>
   </si>
   <si>
-    <t>['40']</t>
+    <t>['18', '30', '70']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1640,7 +1646,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1846,7 +1852,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2258,7 +2264,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2336,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0.57</v>
@@ -2464,7 +2470,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -3369,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3984,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4318,7 +4324,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4524,7 +4530,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4730,7 +4736,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4936,7 +4942,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5348,7 +5354,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5429,7 +5435,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5554,7 +5560,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5760,7 +5766,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>2.32</v>
@@ -5966,7 +5972,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6044,7 +6050,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6172,7 +6178,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6584,7 +6590,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6790,7 +6796,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6996,7 +7002,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7202,7 +7208,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7408,7 +7414,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7614,7 +7620,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7820,7 +7826,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7901,7 +7907,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8026,7 +8032,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8516,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8644,7 +8650,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8850,7 +8856,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9056,7 +9062,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9262,7 +9268,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -10086,7 +10092,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10292,7 +10298,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10498,7 +10504,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10704,7 +10710,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11116,7 +11122,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11194,7 +11200,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>0.57</v>
@@ -11403,7 +11409,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>2.09</v>
@@ -11528,7 +11534,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11734,7 +11740,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12021,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12146,7 +12152,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12352,7 +12358,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12764,7 +12770,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12970,7 +12976,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13176,7 +13182,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13254,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13382,7 +13388,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13794,7 +13800,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14000,7 +14006,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14206,7 +14212,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14412,7 +14418,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14618,7 +14624,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14824,7 +14830,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15236,7 +15242,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15442,7 +15448,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15729,7 +15735,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -15854,7 +15860,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16060,7 +16066,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16472,7 +16478,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16962,7 +16968,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1.71</v>
@@ -17296,7 +17302,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17708,7 +17714,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18326,7 +18332,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18490,7 +18496,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7580417</v>
+        <v>7580418</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18499,157 +18505,157 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F86">
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O86" t="s">
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q86">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R86">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V86">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y86">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z86">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="AA86">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="AB86">
-        <v>2.4</v>
+        <v>3.03</v>
       </c>
       <c r="AC86">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD86">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE86">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AG86">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AH86">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AI86">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ86">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AL86">
         <v>1.25</v>
       </c>
       <c r="AM86">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="AN86">
-        <v>1.14</v>
+        <v>2.71</v>
       </c>
       <c r="AO86">
-        <v>0.71</v>
+        <v>2.14</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AR86">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AS86">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>2.88</v>
+        <v>3.34</v>
       </c>
       <c r="AU86">
         <v>7</v>
       </c>
       <c r="AV86">
+        <v>7</v>
+      </c>
+      <c r="AW86">
         <v>5</v>
-      </c>
-      <c r="AW86">
-        <v>9</v>
       </c>
       <c r="AX86">
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ86">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA86">
         <v>8</v>
       </c>
       <c r="BB86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC86">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD86">
         <v>0</v>
@@ -18673,10 +18679,10 @@
         <v>0</v>
       </c>
       <c r="BK86">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BL86">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -18705,7 +18711,7 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -18902,7 +18908,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7580413</v>
+        <v>7580417</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18917,10 +18923,10 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -18932,28 +18938,28 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O88" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>141</v>
+        <v>198</v>
       </c>
       <c r="Q88">
-        <v>1.91</v>
+        <v>3.2</v>
       </c>
       <c r="R88">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S88">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="T88">
         <v>1.36</v>
@@ -18962,10 +18968,10 @@
         <v>3</v>
       </c>
       <c r="V88">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W88">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X88">
         <v>6.5</v>
@@ -18974,19 +18980,19 @@
         <v>1.1</v>
       </c>
       <c r="Z88">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="AA88">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="AB88">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="AC88">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD88">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE88">
         <v>1.25</v>
@@ -18995,25 +19001,25 @@
         <v>3.6</v>
       </c>
       <c r="AG88">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="AH88">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AI88">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="AJ88">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="AK88">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="AL88">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AM88">
-        <v>2.85</v>
+        <v>1.45</v>
       </c>
       <c r="AN88">
         <v>1.14</v>
@@ -19028,40 +19034,40 @@
         <v>1</v>
       </c>
       <c r="AR88">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AS88">
         <v>1.35</v>
       </c>
       <c r="AT88">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
         <v>5</v>
       </c>
-      <c r="AV88">
-        <v>10</v>
-      </c>
       <c r="AW88">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY88">
         <v>21</v>
       </c>
       <c r="AZ88">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BA88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB88">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC88">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -19085,10 +19091,10 @@
         <v>0</v>
       </c>
       <c r="BK88">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BL88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -19108,7 +19114,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7580418</v>
+        <v>7580413</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19117,55 +19123,55 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45619.58333333334</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F89">
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89" t="s">
+        <v>82</v>
+      </c>
+      <c r="P89" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q89">
+        <v>1.91</v>
+      </c>
+      <c r="R89">
+        <v>2.3</v>
+      </c>
+      <c r="S89">
+        <v>6.5</v>
+      </c>
+      <c r="T89">
+        <v>1.36</v>
+      </c>
+      <c r="U89">
         <v>3</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>4</v>
-      </c>
-      <c r="L89">
-        <v>3</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>4</v>
-      </c>
-      <c r="O89" t="s">
-        <v>144</v>
-      </c>
-      <c r="P89" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q89">
-        <v>2.75</v>
-      </c>
-      <c r="R89">
-        <v>2.1</v>
-      </c>
-      <c r="S89">
-        <v>3.75</v>
-      </c>
-      <c r="T89">
-        <v>1.4</v>
-      </c>
-      <c r="U89">
-        <v>2.75</v>
       </c>
       <c r="V89">
         <v>2.75</v>
@@ -19174,138 +19180,344 @@
         <v>1.4</v>
       </c>
       <c r="X89">
+        <v>6.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
+        <v>1.43</v>
+      </c>
+      <c r="AA89">
+        <v>4.1</v>
+      </c>
+      <c r="AB89">
+        <v>5.6</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.6</v>
+      </c>
+      <c r="AG89">
+        <v>1.92</v>
+      </c>
+      <c r="AH89">
+        <v>1.9</v>
+      </c>
+      <c r="AI89">
+        <v>2.1</v>
+      </c>
+      <c r="AJ89">
+        <v>1.67</v>
+      </c>
+      <c r="AK89">
+        <v>1.04</v>
+      </c>
+      <c r="AL89">
+        <v>1.15</v>
+      </c>
+      <c r="AM89">
+        <v>2.85</v>
+      </c>
+      <c r="AN89">
+        <v>1.14</v>
+      </c>
+      <c r="AO89">
+        <v>0.71</v>
+      </c>
+      <c r="AP89">
+        <v>1</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>1.54</v>
+      </c>
+      <c r="AS89">
+        <v>1.35</v>
+      </c>
+      <c r="AT89">
+        <v>2.89</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>10</v>
+      </c>
+      <c r="AW89">
         <v>7</v>
       </c>
-      <c r="Y89">
+      <c r="AX89">
+        <v>7</v>
+      </c>
+      <c r="AY89">
+        <v>21</v>
+      </c>
+      <c r="AZ89">
+        <v>20</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>7</v>
+      </c>
+      <c r="BC89">
+        <v>14</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7580415</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45620.47916666666</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>145</v>
+      </c>
+      <c r="P90" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>2.3</v>
+      </c>
+      <c r="S90">
+        <v>6</v>
+      </c>
+      <c r="T90">
+        <v>1.36</v>
+      </c>
+      <c r="U90">
+        <v>3</v>
+      </c>
+      <c r="V90">
+        <v>2.63</v>
+      </c>
+      <c r="W90">
+        <v>1.44</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.11</v>
+      </c>
+      <c r="Z90">
+        <v>1.42</v>
+      </c>
+      <c r="AA90">
+        <v>3.72</v>
+      </c>
+      <c r="AB90">
+        <v>5.13</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>9.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.22</v>
+      </c>
+      <c r="AF90">
+        <v>4</v>
+      </c>
+      <c r="AG90">
+        <v>1.7</v>
+      </c>
+      <c r="AH90">
+        <v>2</v>
+      </c>
+      <c r="AI90">
+        <v>1.91</v>
+      </c>
+      <c r="AJ90">
+        <v>1.8</v>
+      </c>
+      <c r="AK90">
         <v>1.08</v>
       </c>
-      <c r="Z89">
-        <v>2.03</v>
-      </c>
-      <c r="AA89">
-        <v>3.14</v>
-      </c>
-      <c r="AB89">
-        <v>3.03</v>
-      </c>
-      <c r="AC89">
-        <v>1.05</v>
-      </c>
-      <c r="AD89">
-        <v>8.5</v>
-      </c>
-      <c r="AE89">
-        <v>1.28</v>
-      </c>
-      <c r="AF89">
-        <v>3.5</v>
-      </c>
-      <c r="AG89">
-        <v>1.88</v>
-      </c>
-      <c r="AH89">
-        <v>1.92</v>
-      </c>
-      <c r="AI89">
-        <v>1.73</v>
-      </c>
-      <c r="AJ89">
-        <v>2</v>
-      </c>
-      <c r="AK89">
-        <v>1.33</v>
-      </c>
-      <c r="AL89">
-        <v>1.25</v>
-      </c>
-      <c r="AM89">
-        <v>1.66</v>
-      </c>
-      <c r="AN89">
-        <v>2.71</v>
-      </c>
-      <c r="AO89">
-        <v>2.14</v>
-      </c>
-      <c r="AP89">
-        <v>2.75</v>
-      </c>
-      <c r="AQ89">
-        <v>1.88</v>
-      </c>
-      <c r="AR89">
-        <v>1.8</v>
-      </c>
-      <c r="AS89">
+      <c r="AL90">
+        <v>1.16</v>
+      </c>
+      <c r="AM90">
+        <v>2.6</v>
+      </c>
+      <c r="AN90">
+        <v>1.71</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>1.5</v>
+      </c>
+      <c r="AQ90">
+        <v>1.29</v>
+      </c>
+      <c r="AR90">
         <v>1.54</v>
       </c>
-      <c r="AT89">
-        <v>3.34</v>
-      </c>
-      <c r="AU89">
-        <v>7</v>
-      </c>
-      <c r="AV89">
-        <v>7</v>
-      </c>
-      <c r="AW89">
+      <c r="AS90">
+        <v>1.36</v>
+      </c>
+      <c r="AT90">
+        <v>2.9</v>
+      </c>
+      <c r="AU90">
+        <v>9</v>
+      </c>
+      <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>19</v>
+      </c>
+      <c r="AZ90">
+        <v>16</v>
+      </c>
+      <c r="BA90">
+        <v>9</v>
+      </c>
+      <c r="BB90">
         <v>5</v>
       </c>
-      <c r="AX89">
-        <v>5</v>
-      </c>
-      <c r="AY89">
-        <v>17</v>
-      </c>
-      <c r="AZ89">
+      <c r="BC90">
         <v>14</v>
       </c>
-      <c r="BA89">
-        <v>8</v>
-      </c>
-      <c r="BB89">
-        <v>2</v>
-      </c>
-      <c r="BC89">
-        <v>10</v>
-      </c>
-      <c r="BD89">
-        <v>0</v>
-      </c>
-      <c r="BE89">
-        <v>0</v>
-      </c>
-      <c r="BF89">
-        <v>0</v>
-      </c>
-      <c r="BG89">
-        <v>0</v>
-      </c>
-      <c r="BH89">
-        <v>0</v>
-      </c>
-      <c r="BI89">
-        <v>0</v>
-      </c>
-      <c r="BJ89">
-        <v>0</v>
-      </c>
-      <c r="BK89">
-        <v>1.95</v>
-      </c>
-      <c r="BL89">
-        <v>1.85</v>
-      </c>
-      <c r="BM89">
-        <v>0</v>
-      </c>
-      <c r="BN89">
-        <v>0</v>
-      </c>
-      <c r="BO89">
-        <v>0</v>
-      </c>
-      <c r="BP89">
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -445,12 +445,12 @@
     <t>['7', '15', '33']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['25', '34', '39', '60', '61', '77']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['21']</t>
   </si>
   <si>
@@ -607,10 +607,10 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['57', '90+3']</t>
+  </si>
+  <si>
     <t>['40']</t>
-  </si>
-  <si>
-    <t>['57', '90+3']</t>
   </si>
   <si>
     <t>['18', '30', '70']</t>
@@ -18702,7 +18702,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7580416</v>
+        <v>7580417</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18714,31 +18714,31 @@
         <v>45618.875</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H87" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
         <v>3</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>4</v>
-      </c>
-      <c r="L87">
-        <v>6</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>7</v>
       </c>
       <c r="O87" t="s">
         <v>143</v>
@@ -18747,122 +18747,122 @@
         <v>197</v>
       </c>
       <c r="Q87">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="R87">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S87">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V87">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W87">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X87">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y87">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="AA87">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AB87">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC87">
         <v>1.02</v>
       </c>
       <c r="AD87">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="AE87">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF87">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AG87">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AH87">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AI87">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ87">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AK87">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AL87">
         <v>1.25</v>
       </c>
       <c r="AM87">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AN87">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR87">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS87">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="AT87">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="AU87">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AV87">
         <v>5</v>
       </c>
       <c r="AW87">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ87">
+        <v>11</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
         <v>12</v>
       </c>
-      <c r="BA87">
-        <v>6</v>
-      </c>
-      <c r="BB87">
-        <v>3</v>
-      </c>
-      <c r="BC87">
-        <v>9</v>
-      </c>
       <c r="BD87">
         <v>0</v>
       </c>
@@ -18885,10 +18885,10 @@
         <v>0</v>
       </c>
       <c r="BK87">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BL87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -18908,7 +18908,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7580417</v>
+        <v>7580416</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18917,34 +18917,34 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F88">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O88" t="s">
         <v>144</v>
@@ -18953,122 +18953,122 @@
         <v>198</v>
       </c>
       <c r="Q88">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R88">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S88">
+        <v>4.33</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
         <v>3</v>
       </c>
-      <c r="T88">
+      <c r="W88">
         <v>1.36</v>
       </c>
-      <c r="U88">
-        <v>3</v>
-      </c>
-      <c r="V88">
-        <v>2.63</v>
-      </c>
-      <c r="W88">
-        <v>1.44</v>
-      </c>
       <c r="X88">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z88">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="AA88">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AB88">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC88">
         <v>1.02</v>
       </c>
       <c r="AD88">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AE88">
+        <v>1.3</v>
+      </c>
+      <c r="AF88">
+        <v>3.3</v>
+      </c>
+      <c r="AG88">
+        <v>1.91</v>
+      </c>
+      <c r="AH88">
+        <v>1.91</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.91</v>
+      </c>
+      <c r="AK88">
         <v>1.25</v>
-      </c>
-      <c r="AF88">
-        <v>3.6</v>
-      </c>
-      <c r="AG88">
-        <v>1.87</v>
-      </c>
-      <c r="AH88">
-        <v>1.95</v>
-      </c>
-      <c r="AI88">
-        <v>1.62</v>
-      </c>
-      <c r="AJ88">
-        <v>2.2</v>
-      </c>
-      <c r="AK88">
-        <v>1.5</v>
       </c>
       <c r="AL88">
         <v>1.25</v>
       </c>
       <c r="AM88">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AO88">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR88">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS88">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AT88">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AU88">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV88">
         <v>5</v>
       </c>
       <c r="AW88">
+        <v>1</v>
+      </c>
+      <c r="AX88">
+        <v>6</v>
+      </c>
+      <c r="AY88">
+        <v>22</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>6</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
         <v>9</v>
       </c>
-      <c r="AX88">
-        <v>5</v>
-      </c>
-      <c r="AY88">
-        <v>21</v>
-      </c>
-      <c r="AZ88">
-        <v>11</v>
-      </c>
-      <c r="BA88">
-        <v>8</v>
-      </c>
-      <c r="BB88">
-        <v>4</v>
-      </c>
-      <c r="BC88">
-        <v>12</v>
-      </c>
       <c r="BD88">
         <v>0</v>
       </c>
@@ -19091,10 +19091,10 @@
         <v>0</v>
       </c>
       <c r="BK88">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BL88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM88">
         <v>0</v>
@@ -19123,7 +19123,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45619.47916666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F89">
         <v>15</v>
@@ -19329,7 +19329,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45620.47916666666</v>
+        <v>45619.875</v>
       </c>
       <c r="F90">
         <v>15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -442,13 +442,13 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['25', '34', '39', '60', '61', '77']</t>
+  </si>
+  <si>
     <t>['7', '15', '33']</t>
-  </si>
-  <si>
-    <t>['88']</t>
-  </si>
-  <si>
-    <t>['25', '34', '39', '60', '61', '77']</t>
   </si>
   <si>
     <t>['21']</t>
@@ -18299,7 +18299,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45617.875</v>
+        <v>45618.58333333334</v>
       </c>
       <c r="F85">
         <v>15</v>
@@ -18425,22 +18425,22 @@
         <v>3.17</v>
       </c>
       <c r="AU85">
+        <v>2</v>
+      </c>
+      <c r="AV85">
         <v>4</v>
       </c>
-      <c r="AV85">
-        <v>6</v>
-      </c>
       <c r="AW85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX85">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY85">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AZ85">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="BA85">
         <v>1</v>
@@ -18496,7 +18496,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7580418</v>
+        <v>7580417</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18505,157 +18505,157 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F86">
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
         <v>3</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>4</v>
-      </c>
-      <c r="L86">
-        <v>3</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>4</v>
       </c>
       <c r="O86" t="s">
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Q86">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T86">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X86">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y86">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z86">
-        <v>2.03</v>
+        <v>2.45</v>
       </c>
       <c r="AA86">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="AB86">
-        <v>3.03</v>
+        <v>2.4</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD86">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE86">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF86">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AG86">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AH86">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AI86">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ86">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK86">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AL86">
         <v>1.25</v>
       </c>
       <c r="AM86">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="AN86">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="AO86">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP86">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AR86">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AS86">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AT86">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="AU86">
         <v>7</v>
       </c>
       <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
         <v>7</v>
       </c>
-      <c r="AW86">
-        <v>5</v>
-      </c>
-      <c r="AX86">
-        <v>5</v>
-      </c>
       <c r="AY86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ86">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA86">
         <v>8</v>
       </c>
       <c r="BB86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC86">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD86">
         <v>0</v>
@@ -18679,10 +18679,10 @@
         <v>0</v>
       </c>
       <c r="BK86">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BL86">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BM86">
         <v>0</v>
@@ -18702,7 +18702,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7580417</v>
+        <v>7580416</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18711,157 +18711,157 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F87">
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O87" t="s">
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q87">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R87">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S87">
+        <v>4.33</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
         <v>3</v>
       </c>
-      <c r="T87">
+      <c r="W87">
         <v>1.36</v>
       </c>
-      <c r="U87">
-        <v>3</v>
-      </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
       <c r="X87">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y87">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z87">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="AA87">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AB87">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC87">
         <v>1.02</v>
       </c>
       <c r="AD87">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="AE87">
+        <v>1.3</v>
+      </c>
+      <c r="AF87">
+        <v>3.3</v>
+      </c>
+      <c r="AG87">
+        <v>1.91</v>
+      </c>
+      <c r="AH87">
+        <v>1.91</v>
+      </c>
+      <c r="AI87">
+        <v>1.8</v>
+      </c>
+      <c r="AJ87">
+        <v>1.91</v>
+      </c>
+      <c r="AK87">
         <v>1.25</v>
-      </c>
-      <c r="AF87">
-        <v>3.6</v>
-      </c>
-      <c r="AG87">
-        <v>1.87</v>
-      </c>
-      <c r="AH87">
-        <v>1.95</v>
-      </c>
-      <c r="AI87">
-        <v>1.62</v>
-      </c>
-      <c r="AJ87">
-        <v>2.2</v>
-      </c>
-      <c r="AK87">
-        <v>1.5</v>
       </c>
       <c r="AL87">
         <v>1.25</v>
       </c>
       <c r="AM87">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="AO87">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR87">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS87">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="AT87">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>4</v>
+      </c>
+      <c r="AW87">
+        <v>10</v>
+      </c>
+      <c r="AX87">
         <v>7</v>
       </c>
-      <c r="AV87">
-        <v>5</v>
-      </c>
-      <c r="AW87">
-        <v>9</v>
-      </c>
-      <c r="AX87">
-        <v>5</v>
-      </c>
       <c r="AY87">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ87">
         <v>11</v>
       </c>
       <c r="BA87">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC87">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD87">
         <v>0</v>
@@ -18885,10 +18885,10 @@
         <v>0</v>
       </c>
       <c r="BK87">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BL87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM87">
         <v>0</v>
@@ -18908,7 +18908,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7580416</v>
+        <v>7580413</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18917,157 +18917,157 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45618.875</v>
+        <v>45619.47916666666</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P88" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q88">
+        <v>1.91</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>6.5</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
         <v>3</v>
       </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-      <c r="K88">
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.43</v>
+      </c>
+      <c r="AA88">
+        <v>4.1</v>
+      </c>
+      <c r="AB88">
+        <v>5.6</v>
+      </c>
+      <c r="AC88">
+        <v>1.01</v>
+      </c>
+      <c r="AD88">
+        <v>11</v>
+      </c>
+      <c r="AE88">
+        <v>1.25</v>
+      </c>
+      <c r="AF88">
+        <v>3.6</v>
+      </c>
+      <c r="AG88">
+        <v>1.92</v>
+      </c>
+      <c r="AH88">
+        <v>1.9</v>
+      </c>
+      <c r="AI88">
+        <v>2.1</v>
+      </c>
+      <c r="AJ88">
+        <v>1.67</v>
+      </c>
+      <c r="AK88">
+        <v>1.04</v>
+      </c>
+      <c r="AL88">
+        <v>1.15</v>
+      </c>
+      <c r="AM88">
+        <v>2.85</v>
+      </c>
+      <c r="AN88">
+        <v>1.14</v>
+      </c>
+      <c r="AO88">
+        <v>0.71</v>
+      </c>
+      <c r="AP88">
+        <v>1</v>
+      </c>
+      <c r="AQ88">
+        <v>1</v>
+      </c>
+      <c r="AR88">
+        <v>1.54</v>
+      </c>
+      <c r="AS88">
+        <v>1.35</v>
+      </c>
+      <c r="AT88">
+        <v>2.89</v>
+      </c>
+      <c r="AU88">
         <v>4</v>
       </c>
-      <c r="L88">
+      <c r="AV88">
+        <v>9</v>
+      </c>
+      <c r="AW88">
+        <v>11</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
         <v>6</v>
       </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>7</v>
-      </c>
-      <c r="O88" t="s">
-        <v>144</v>
-      </c>
-      <c r="P88" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q88">
-        <v>2.5</v>
-      </c>
-      <c r="R88">
-        <v>2.1</v>
-      </c>
-      <c r="S88">
-        <v>4.33</v>
-      </c>
-      <c r="T88">
-        <v>1.4</v>
-      </c>
-      <c r="U88">
-        <v>2.75</v>
-      </c>
-      <c r="V88">
-        <v>3</v>
-      </c>
-      <c r="W88">
-        <v>1.36</v>
-      </c>
-      <c r="X88">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1.08</v>
-      </c>
-      <c r="Z88">
-        <v>1.93</v>
-      </c>
-      <c r="AA88">
-        <v>3.35</v>
-      </c>
-      <c r="AB88">
-        <v>3.3</v>
-      </c>
-      <c r="AC88">
-        <v>1.02</v>
-      </c>
-      <c r="AD88">
-        <v>7.1</v>
-      </c>
-      <c r="AE88">
-        <v>1.3</v>
-      </c>
-      <c r="AF88">
-        <v>3.3</v>
-      </c>
-      <c r="AG88">
-        <v>1.91</v>
-      </c>
-      <c r="AH88">
-        <v>1.91</v>
-      </c>
-      <c r="AI88">
-        <v>1.8</v>
-      </c>
-      <c r="AJ88">
-        <v>1.91</v>
-      </c>
-      <c r="AK88">
-        <v>1.25</v>
-      </c>
-      <c r="AL88">
-        <v>1.25</v>
-      </c>
-      <c r="AM88">
-        <v>1.8</v>
-      </c>
-      <c r="AN88">
-        <v>1.43</v>
-      </c>
-      <c r="AO88">
-        <v>0.57</v>
-      </c>
-      <c r="AP88">
-        <v>1.63</v>
-      </c>
-      <c r="AQ88">
-        <v>0.5</v>
-      </c>
-      <c r="AR88">
-        <v>1.42</v>
-      </c>
-      <c r="AS88">
-        <v>1.08</v>
-      </c>
-      <c r="AT88">
-        <v>2.5</v>
-      </c>
-      <c r="AU88">
-        <v>12</v>
-      </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>1</v>
-      </c>
-      <c r="AX88">
-        <v>6</v>
-      </c>
-      <c r="AY88">
-        <v>22</v>
-      </c>
-      <c r="AZ88">
-        <v>12</v>
-      </c>
-      <c r="BA88">
-        <v>6</v>
-      </c>
-      <c r="BB88">
-        <v>3</v>
-      </c>
       <c r="BC88">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD88">
         <v>0</v>
@@ -19114,7 +19114,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7580413</v>
+        <v>7580418</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19123,55 +19123,55 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45618.875</v>
+        <v>45619.58333333334</v>
       </c>
       <c r="F89">
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89">
         <v>1</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O89" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="Q89">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="R89">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S89">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="T89">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U89">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V89">
         <v>2.75</v>
@@ -19180,101 +19180,101 @@
         <v>1.4</v>
       </c>
       <c r="X89">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y89">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z89">
-        <v>1.43</v>
+        <v>2.03</v>
       </c>
       <c r="AA89">
-        <v>4.1</v>
+        <v>3.14</v>
       </c>
       <c r="AB89">
-        <v>5.6</v>
+        <v>3.03</v>
       </c>
       <c r="AC89">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD89">
+        <v>8.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.28</v>
+      </c>
+      <c r="AF89">
+        <v>3.5</v>
+      </c>
+      <c r="AG89">
+        <v>1.88</v>
+      </c>
+      <c r="AH89">
+        <v>1.92</v>
+      </c>
+      <c r="AI89">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.33</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.66</v>
+      </c>
+      <c r="AN89">
+        <v>2.71</v>
+      </c>
+      <c r="AO89">
+        <v>2.14</v>
+      </c>
+      <c r="AP89">
+        <v>2.75</v>
+      </c>
+      <c r="AQ89">
+        <v>1.88</v>
+      </c>
+      <c r="AR89">
+        <v>1.8</v>
+      </c>
+      <c r="AS89">
+        <v>1.54</v>
+      </c>
+      <c r="AT89">
+        <v>3.34</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>8</v>
+      </c>
+      <c r="AW89">
+        <v>10</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>14</v>
+      </c>
+      <c r="AZ89">
+        <v>12</v>
+      </c>
+      <c r="BA89">
+        <v>8</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
         <v>11</v>
       </c>
-      <c r="AE89">
-        <v>1.25</v>
-      </c>
-      <c r="AF89">
-        <v>3.6</v>
-      </c>
-      <c r="AG89">
-        <v>1.92</v>
-      </c>
-      <c r="AH89">
-        <v>1.9</v>
-      </c>
-      <c r="AI89">
-        <v>2.1</v>
-      </c>
-      <c r="AJ89">
-        <v>1.67</v>
-      </c>
-      <c r="AK89">
-        <v>1.04</v>
-      </c>
-      <c r="AL89">
-        <v>1.15</v>
-      </c>
-      <c r="AM89">
-        <v>2.85</v>
-      </c>
-      <c r="AN89">
-        <v>1.14</v>
-      </c>
-      <c r="AO89">
-        <v>0.71</v>
-      </c>
-      <c r="AP89">
-        <v>1</v>
-      </c>
-      <c r="AQ89">
-        <v>1</v>
-      </c>
-      <c r="AR89">
-        <v>1.54</v>
-      </c>
-      <c r="AS89">
-        <v>1.35</v>
-      </c>
-      <c r="AT89">
-        <v>2.89</v>
-      </c>
-      <c r="AU89">
-        <v>5</v>
-      </c>
-      <c r="AV89">
-        <v>10</v>
-      </c>
-      <c r="AW89">
-        <v>7</v>
-      </c>
-      <c r="AX89">
-        <v>7</v>
-      </c>
-      <c r="AY89">
-        <v>21</v>
-      </c>
-      <c r="AZ89">
-        <v>20</v>
-      </c>
-      <c r="BA89">
-        <v>7</v>
-      </c>
-      <c r="BB89">
-        <v>7</v>
-      </c>
-      <c r="BC89">
-        <v>14</v>
-      </c>
       <c r="BD89">
         <v>0</v>
       </c>
@@ -19297,10 +19297,10 @@
         <v>0</v>
       </c>
       <c r="BK89">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BL89">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BM89">
         <v>0</v>
@@ -19329,7 +19329,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45619.875</v>
+        <v>45620.47916666666</v>
       </c>
       <c r="F90">
         <v>15</v>
@@ -19455,22 +19455,22 @@
         <v>2.9</v>
       </c>
       <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>11</v>
+      </c>
+      <c r="AZ90">
         <v>9</v>
-      </c>
-      <c r="AV90">
-        <v>6</v>
-      </c>
-      <c r="AW90">
-        <v>6</v>
-      </c>
-      <c r="AX90">
-        <v>3</v>
-      </c>
-      <c r="AY90">
-        <v>19</v>
-      </c>
-      <c r="AZ90">
-        <v>16</v>
       </c>
       <c r="BA90">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,15 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['25', '37']</t>
+  </si>
+  <si>
+    <t>['55', '61', '64', '85']</t>
+  </si>
+  <si>
+    <t>['45', '62']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -614,6 +623,12 @@
   </si>
   <si>
     <t>['18', '30', '70']</t>
+  </si>
+  <si>
+    <t>['11', '51']</t>
+  </si>
+  <si>
+    <t>['10', '52', '63', '65']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1646,7 +1661,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1852,7 +1867,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1933,7 +1948,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2136,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2264,7 +2279,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2470,7 +2485,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2551,7 +2566,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2754,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
         <v>1.14</v>
@@ -3166,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -4199,7 +4214,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR16">
         <v>2.2</v>
@@ -4324,7 +4339,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4530,7 +4545,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4608,10 +4623,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR18">
         <v>1.61</v>
@@ -4736,7 +4751,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4814,10 +4829,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>1.28</v>
@@ -4942,7 +4957,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5020,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
         <v>0.57</v>
@@ -5226,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR21">
         <v>1.9</v>
@@ -5354,7 +5369,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5560,7 +5575,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5766,7 +5781,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>2.32</v>
@@ -5972,7 +5987,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6178,7 +6193,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6590,7 +6605,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6796,7 +6811,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6874,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
         <v>0.57</v>
@@ -7002,7 +7017,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7083,7 +7098,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ30">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7208,7 +7223,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7286,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7414,7 +7429,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7492,7 +7507,7 @@
         <v>0.33</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7620,7 +7635,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7701,7 +7716,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ33">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>2.34</v>
@@ -7826,7 +7841,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8032,7 +8047,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8650,7 +8665,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8728,10 +8743,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR38">
         <v>1.64</v>
@@ -8856,7 +8871,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -8937,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9062,7 +9077,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9268,7 +9283,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9349,7 +9364,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9555,7 +9570,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9758,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
         <v>0.57</v>
@@ -9964,7 +9979,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10092,7 +10107,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10173,7 +10188,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10298,7 +10313,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10376,7 +10391,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>2.75</v>
@@ -10504,7 +10519,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10710,7 +10725,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10788,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11122,7 +11137,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11203,7 +11218,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11534,7 +11549,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11612,7 +11627,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ52">
         <v>1.88</v>
@@ -11740,7 +11755,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -11821,7 +11836,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR53">
         <v>1.35</v>
@@ -12152,7 +12167,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12358,7 +12373,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12439,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12770,7 +12785,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12848,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -12976,7 +12991,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13054,10 +13069,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13182,7 +13197,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13263,7 +13278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13388,7 +13403,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13466,7 +13481,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
         <v>2.75</v>
@@ -13800,7 +13815,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14006,7 +14021,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14212,7 +14227,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14293,7 +14308,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.47</v>
@@ -14418,7 +14433,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14624,7 +14639,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14702,7 +14717,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>1.88</v>
@@ -14830,7 +14845,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14908,10 +14923,10 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.28</v>
@@ -15242,7 +15257,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15323,7 +15338,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ70">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15448,7 +15463,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15732,7 +15747,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -15860,7 +15875,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -15938,7 +15953,7 @@
         <v>0.83</v>
       </c>
       <c r="AP73">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16066,7 +16081,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16147,7 +16162,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR74">
         <v>1.41</v>
@@ -16478,7 +16493,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16556,7 +16571,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>2.75</v>
@@ -16971,7 +16986,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR78">
         <v>1.45</v>
@@ -17177,7 +17192,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR79">
         <v>1.8</v>
@@ -17302,7 +17317,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17380,10 +17395,10 @@
         <v>1.83</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>1.35</v>
@@ -17586,10 +17601,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -17714,7 +17729,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -17998,7 +18013,7 @@
         <v>1.17</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18332,7 +18347,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18538,7 +18553,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18744,7 +18759,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19156,7 +19171,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19362,7 +19377,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19518,6 +19533,830 @@
         <v>0</v>
       </c>
       <c r="BP90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7580422</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>146</v>
+      </c>
+      <c r="P91" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q91">
+        <v>1.95</v>
+      </c>
+      <c r="R91">
+        <v>2.3</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="T91">
+        <v>1.33</v>
+      </c>
+      <c r="U91">
+        <v>3.25</v>
+      </c>
+      <c r="V91">
+        <v>2.63</v>
+      </c>
+      <c r="W91">
+        <v>1.44</v>
+      </c>
+      <c r="X91">
+        <v>6</v>
+      </c>
+      <c r="Y91">
+        <v>1.11</v>
+      </c>
+      <c r="Z91">
+        <v>1.39</v>
+      </c>
+      <c r="AA91">
+        <v>3.93</v>
+      </c>
+      <c r="AB91">
+        <v>5.8</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>9.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.22</v>
+      </c>
+      <c r="AF91">
+        <v>3.85</v>
+      </c>
+      <c r="AG91">
+        <v>1.78</v>
+      </c>
+      <c r="AH91">
+        <v>1.99</v>
+      </c>
+      <c r="AI91">
+        <v>2</v>
+      </c>
+      <c r="AJ91">
+        <v>1.73</v>
+      </c>
+      <c r="AK91">
+        <v>1.07</v>
+      </c>
+      <c r="AL91">
+        <v>1.15</v>
+      </c>
+      <c r="AM91">
+        <v>2.65</v>
+      </c>
+      <c r="AN91">
+        <v>1.71</v>
+      </c>
+      <c r="AO91">
+        <v>0.57</v>
+      </c>
+      <c r="AP91">
+        <v>1.88</v>
+      </c>
+      <c r="AQ91">
+        <v>0.5</v>
+      </c>
+      <c r="AR91">
+        <v>1.74</v>
+      </c>
+      <c r="AS91">
+        <v>1.38</v>
+      </c>
+      <c r="AT91">
+        <v>3.12</v>
+      </c>
+      <c r="AU91">
+        <v>10</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>20</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
+        <v>8</v>
+      </c>
+      <c r="BB91">
+        <v>6</v>
+      </c>
+      <c r="BC91">
+        <v>14</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>1.95</v>
+      </c>
+      <c r="BL91">
+        <v>1.85</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7580419</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>147</v>
+      </c>
+      <c r="P92" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q92">
+        <v>2.88</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>3.6</v>
+      </c>
+      <c r="T92">
+        <v>1.4</v>
+      </c>
+      <c r="U92">
+        <v>2.75</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+      <c r="W92">
+        <v>1.36</v>
+      </c>
+      <c r="X92">
+        <v>7</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>2.03</v>
+      </c>
+      <c r="AA92">
+        <v>2.99</v>
+      </c>
+      <c r="AB92">
+        <v>2.93</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>8.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.3</v>
+      </c>
+      <c r="AF92">
+        <v>3.35</v>
+      </c>
+      <c r="AG92">
+        <v>1.98</v>
+      </c>
+      <c r="AH92">
+        <v>1.78</v>
+      </c>
+      <c r="AI92">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92">
+        <v>1.91</v>
+      </c>
+      <c r="AK92">
+        <v>1.44</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.5</v>
+      </c>
+      <c r="AN92">
+        <v>1.29</v>
+      </c>
+      <c r="AO92">
+        <v>0.71</v>
+      </c>
+      <c r="AP92">
+        <v>1.5</v>
+      </c>
+      <c r="AQ92">
+        <v>0.63</v>
+      </c>
+      <c r="AR92">
+        <v>1.34</v>
+      </c>
+      <c r="AS92">
+        <v>1.38</v>
+      </c>
+      <c r="AT92">
+        <v>2.72</v>
+      </c>
+      <c r="AU92">
+        <v>10</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>9</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>21</v>
+      </c>
+      <c r="AZ92">
+        <v>7</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7580420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45626.47916666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>4</v>
+      </c>
+      <c r="N93">
+        <v>6</v>
+      </c>
+      <c r="O93" t="s">
+        <v>148</v>
+      </c>
+      <c r="P93" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>2.2</v>
+      </c>
+      <c r="S93">
+        <v>2.5</v>
+      </c>
+      <c r="T93">
+        <v>1.36</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>6.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>3.28</v>
+      </c>
+      <c r="AA93">
+        <v>3.12</v>
+      </c>
+      <c r="AB93">
+        <v>1.94</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>9</v>
+      </c>
+      <c r="AE93">
+        <v>1.25</v>
+      </c>
+      <c r="AF93">
+        <v>3.7</v>
+      </c>
+      <c r="AG93">
+        <v>1.82</v>
+      </c>
+      <c r="AH93">
+        <v>1.98</v>
+      </c>
+      <c r="AI93">
+        <v>1.73</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>1.77</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>1.28</v>
+      </c>
+      <c r="AN93">
+        <v>1.29</v>
+      </c>
+      <c r="AO93">
+        <v>1.71</v>
+      </c>
+      <c r="AP93">
+        <v>1.13</v>
+      </c>
+      <c r="AQ93">
+        <v>1.88</v>
+      </c>
+      <c r="AR93">
+        <v>1.53</v>
+      </c>
+      <c r="AS93">
+        <v>1.36</v>
+      </c>
+      <c r="AT93">
+        <v>2.89</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>3</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>12</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>3</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7580421</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45626.58333333334</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>82</v>
+      </c>
+      <c r="P94" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q94">
+        <v>3.2</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>3</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>3.2</v>
+      </c>
+      <c r="AA94">
+        <v>3.35</v>
+      </c>
+      <c r="AB94">
+        <v>2.1</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>8.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.25</v>
+      </c>
+      <c r="AF94">
+        <v>3.65</v>
+      </c>
+      <c r="AG94">
+        <v>1.8</v>
+      </c>
+      <c r="AH94">
+        <v>1.9</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
+        <v>2.1</v>
+      </c>
+      <c r="AK94">
+        <v>1.5</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.44</v>
+      </c>
+      <c r="AN94">
+        <v>1.29</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>1.25</v>
+      </c>
+      <c r="AQ94">
+        <v>1.88</v>
+      </c>
+      <c r="AR94">
+        <v>1.72</v>
+      </c>
+      <c r="AS94">
+        <v>1.57</v>
+      </c>
+      <c r="AT94">
+        <v>3.29</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>19</v>
+      </c>
+      <c r="AZ94">
+        <v>13</v>
+      </c>
+      <c r="BA94">
+        <v>4</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>9</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,12 @@
     <t>['45', '62']</t>
   </si>
   <si>
+    <t>['48', '56', '76']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -491,9 +497,6 @@
   </si>
   <si>
     <t>['59', '81']</t>
-  </si>
-  <si>
-    <t>['25']</t>
   </si>
   <si>
     <t>['41', '49']</t>
@@ -990,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1661,7 +1664,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1739,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>2.75</v>
@@ -1867,7 +1870,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2279,7 +2282,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2360,7 +2363,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2485,7 +2488,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2772,7 +2775,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2975,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -4339,7 +4342,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4417,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR17">
         <v>1.31</v>
@@ -4545,7 +4548,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4751,7 +4754,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4957,7 +4960,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5038,7 +5041,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5369,7 +5372,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5575,7 +5578,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5781,7 +5784,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>2.32</v>
@@ -5987,7 +5990,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6193,7 +6196,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6480,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6605,7 +6608,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6683,7 +6686,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6811,7 +6814,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6892,7 +6895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.86</v>
@@ -7017,7 +7020,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7095,7 +7098,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ30">
         <v>1.88</v>
@@ -7223,7 +7226,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7429,7 +7432,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7635,7 +7638,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7841,7 +7844,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8047,7 +8050,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8665,7 +8668,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8871,7 +8874,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9077,7 +9080,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9155,7 +9158,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ40">
         <v>0.5</v>
@@ -9283,7 +9286,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9567,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -9776,7 +9779,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ43">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10107,7 +10110,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10185,7 +10188,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>0.63</v>
@@ -10313,7 +10316,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10519,7 +10522,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10600,7 +10603,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.38</v>
@@ -10725,7 +10728,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11137,7 +11140,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11549,7 +11552,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11755,7 +11758,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12167,7 +12170,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12245,7 +12248,7 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12373,7 +12376,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12785,7 +12788,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12866,7 +12869,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -12991,7 +12994,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13197,7 +13200,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13403,7 +13406,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13690,7 +13693,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13815,7 +13818,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13893,7 +13896,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14021,7 +14024,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14227,7 +14230,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14433,7 +14436,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14514,7 +14517,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -14639,7 +14642,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14845,7 +14848,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15257,7 +15260,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15463,7 +15466,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15875,7 +15878,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16081,7 +16084,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16159,7 +16162,7 @@
         <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74">
         <v>1.88</v>
@@ -16493,7 +16496,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16780,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17189,7 +17192,7 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17317,7 +17320,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17729,7 +17732,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -17807,7 +17810,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AQ82">
         <v>1.88</v>
@@ -18016,7 +18019,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18222,7 +18225,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18347,7 +18350,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18553,7 +18556,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18759,7 +18762,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19171,7 +19174,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19377,7 +19380,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19550,7 +19553,7 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45626.47916666666</v>
+        <v>45625.875</v>
       </c>
       <c r="F91">
         <v>16</v>
@@ -19756,7 +19759,7 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45626.47916666666</v>
+        <v>45625.875</v>
       </c>
       <c r="F92">
         <v>16</v>
@@ -19789,7 +19792,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -19995,7 +19998,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20358,6 +20361,418 @@
       </c>
       <c r="BP94">
         <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7580424</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45627.47916666666</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>149</v>
+      </c>
+      <c r="P95" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q95">
+        <v>1.73</v>
+      </c>
+      <c r="R95">
+        <v>2.4</v>
+      </c>
+      <c r="S95">
+        <v>8</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.25</v>
+      </c>
+      <c r="V95">
+        <v>2.5</v>
+      </c>
+      <c r="W95">
+        <v>1.5</v>
+      </c>
+      <c r="X95">
+        <v>5.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.13</v>
+      </c>
+      <c r="Z95">
+        <v>1.29</v>
+      </c>
+      <c r="AA95">
+        <v>4.23</v>
+      </c>
+      <c r="AB95">
+        <v>6.66</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>12</v>
+      </c>
+      <c r="AE95">
+        <v>1.16</v>
+      </c>
+      <c r="AF95">
+        <v>3.94</v>
+      </c>
+      <c r="AG95">
+        <v>1.67</v>
+      </c>
+      <c r="AH95">
+        <v>2.1</v>
+      </c>
+      <c r="AI95">
+        <v>2.1</v>
+      </c>
+      <c r="AJ95">
+        <v>1.67</v>
+      </c>
+      <c r="AK95">
+        <v>1.03</v>
+      </c>
+      <c r="AL95">
+        <v>1.14</v>
+      </c>
+      <c r="AM95">
+        <v>3.48</v>
+      </c>
+      <c r="AN95">
+        <v>2.17</v>
+      </c>
+      <c r="AO95">
+        <v>0.57</v>
+      </c>
+      <c r="AP95">
+        <v>2.29</v>
+      </c>
+      <c r="AQ95">
+        <v>0.5</v>
+      </c>
+      <c r="AR95">
+        <v>1.73</v>
+      </c>
+      <c r="AS95">
+        <v>1.18</v>
+      </c>
+      <c r="AT95">
+        <v>2.91</v>
+      </c>
+      <c r="AU95">
+        <v>11</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>8</v>
+      </c>
+      <c r="AX95">
+        <v>3</v>
+      </c>
+      <c r="AY95">
+        <v>24</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>9</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>12</v>
+      </c>
+      <c r="BD95">
+        <v>1.19</v>
+      </c>
+      <c r="BE95">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF95">
+        <v>6.25</v>
+      </c>
+      <c r="BG95">
+        <v>1.22</v>
+      </c>
+      <c r="BH95">
+        <v>3.9</v>
+      </c>
+      <c r="BI95">
+        <v>1.41</v>
+      </c>
+      <c r="BJ95">
+        <v>2.7</v>
+      </c>
+      <c r="BK95">
+        <v>1.68</v>
+      </c>
+      <c r="BL95">
+        <v>2.06</v>
+      </c>
+      <c r="BM95">
+        <v>2.1</v>
+      </c>
+      <c r="BN95">
+        <v>1.66</v>
+      </c>
+      <c r="BO95">
+        <v>2.65</v>
+      </c>
+      <c r="BP95">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7580423</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45627.47916666666</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>150</v>
+      </c>
+      <c r="P96" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q96">
+        <v>3.2</v>
+      </c>
+      <c r="R96">
+        <v>2.2</v>
+      </c>
+      <c r="S96">
+        <v>3</v>
+      </c>
+      <c r="T96">
+        <v>1.36</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>6.5</v>
+      </c>
+      <c r="Y96">
+        <v>1.1</v>
+      </c>
+      <c r="Z96">
+        <v>2.52</v>
+      </c>
+      <c r="AA96">
+        <v>3.03</v>
+      </c>
+      <c r="AB96">
+        <v>2.26</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.18</v>
+      </c>
+      <c r="AF96">
+        <v>3.68</v>
+      </c>
+      <c r="AG96">
+        <v>1.76</v>
+      </c>
+      <c r="AH96">
+        <v>2</v>
+      </c>
+      <c r="AI96">
+        <v>1.67</v>
+      </c>
+      <c r="AJ96">
+        <v>2.1</v>
+      </c>
+      <c r="AK96">
+        <v>1.53</v>
+      </c>
+      <c r="AL96">
+        <v>1.28</v>
+      </c>
+      <c r="AM96">
+        <v>1.44</v>
+      </c>
+      <c r="AN96">
+        <v>0.43</v>
+      </c>
+      <c r="AO96">
+        <v>1.14</v>
+      </c>
+      <c r="AP96">
+        <v>0.5</v>
+      </c>
+      <c r="AQ96">
+        <v>1.13</v>
+      </c>
+      <c r="AR96">
+        <v>1.35</v>
+      </c>
+      <c r="AS96">
+        <v>1.09</v>
+      </c>
+      <c r="AT96">
+        <v>2.44</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>6</v>
+      </c>
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>18</v>
+      </c>
+      <c r="AZ96">
+        <v>16</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>6</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.99</v>
+      </c>
+      <c r="BE96">
+        <v>6.4</v>
+      </c>
+      <c r="BF96">
+        <v>2.24</v>
+      </c>
+      <c r="BG96">
+        <v>1.3</v>
+      </c>
+      <c r="BH96">
+        <v>3.2</v>
+      </c>
+      <c r="BI96">
+        <v>1.53</v>
+      </c>
+      <c r="BJ96">
+        <v>2.33</v>
+      </c>
+      <c r="BK96">
+        <v>1.95</v>
+      </c>
+      <c r="BL96">
+        <v>1.85</v>
+      </c>
+      <c r="BM96">
+        <v>2.42</v>
+      </c>
+      <c r="BN96">
+        <v>1.5</v>
+      </c>
+      <c r="BO96">
+        <v>3.22</v>
+      </c>
+      <c r="BP96">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -19553,7 +19553,7 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45625.875</v>
+        <v>45626.47916666666</v>
       </c>
       <c r="F91">
         <v>16</v>
@@ -19759,7 +19759,7 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45625.875</v>
+        <v>45626.47916666666</v>
       </c>
       <c r="F92">
         <v>16</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>['25']</t>
+  </si>
+  <si>
+    <t>['6', '27', '33', '37', '83', '90+4']</t>
   </si>
   <si>
     <t>['5', '42', '80', '90+2']</t>
@@ -993,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1664,7 +1667,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1870,7 +1873,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2282,7 +2285,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2488,7 +2491,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2978,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3393,7 +3396,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4342,7 +4345,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4420,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ17">
         <v>1.13</v>
@@ -4548,7 +4551,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4754,7 +4757,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4960,7 +4963,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5372,7 +5375,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5453,7 +5456,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5578,7 +5581,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5990,7 +5993,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6196,7 +6199,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6608,7 +6611,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6814,7 +6817,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7020,7 +7023,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7098,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ30">
         <v>1.88</v>
@@ -7226,7 +7229,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7432,7 +7435,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7638,7 +7641,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7844,7 +7847,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7925,7 +7928,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8050,7 +8053,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8668,7 +8671,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8874,7 +8877,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9080,7 +9083,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9286,7 +9289,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9570,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -10110,7 +10113,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10316,7 +10319,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10522,7 +10525,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10728,7 +10731,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11140,7 +11143,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11427,7 +11430,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>2.09</v>
@@ -11552,7 +11555,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11758,7 +11761,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12045,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12170,7 +12173,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12248,7 +12251,7 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>0.5</v>
@@ -12376,7 +12379,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12788,7 +12791,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12994,7 +12997,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13200,7 +13203,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13406,7 +13409,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13818,7 +13821,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14024,7 +14027,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14230,7 +14233,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14436,7 +14439,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14642,7 +14645,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14848,7 +14851,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15260,7 +15263,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15466,7 +15469,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15753,7 +15756,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -15878,7 +15881,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16084,7 +16087,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16496,7 +16499,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17192,7 +17195,7 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ79">
         <v>0.5</v>
@@ -17320,7 +17323,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17732,7 +17735,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18350,7 +18353,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18556,7 +18559,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18762,7 +18765,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19174,7 +19177,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19380,7 +19383,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19461,7 +19464,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.54</v>
@@ -19792,7 +19795,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -19998,7 +20001,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20488,7 +20491,7 @@
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ95">
         <v>0.5</v>
@@ -20773,6 +20776,212 @@
       </c>
       <c r="BP96">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7580394</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45630.58333333334</v>
+      </c>
+      <c r="F97">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>78</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97">
+        <v>4</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>6</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>6</v>
+      </c>
+      <c r="O97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P97" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q97">
+        <v>1.57</v>
+      </c>
+      <c r="R97">
+        <v>2.85</v>
+      </c>
+      <c r="S97">
+        <v>7.5</v>
+      </c>
+      <c r="T97">
+        <v>1.2</v>
+      </c>
+      <c r="U97">
+        <v>4</v>
+      </c>
+      <c r="V97">
+        <v>1.95</v>
+      </c>
+      <c r="W97">
+        <v>1.77</v>
+      </c>
+      <c r="X97">
+        <v>4</v>
+      </c>
+      <c r="Y97">
+        <v>1.22</v>
+      </c>
+      <c r="Z97">
+        <v>1.49</v>
+      </c>
+      <c r="AA97">
+        <v>4.83</v>
+      </c>
+      <c r="AB97">
+        <v>4.3</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>1.1</v>
+      </c>
+      <c r="AF97">
+        <v>6.25</v>
+      </c>
+      <c r="AG97">
+        <v>1.35</v>
+      </c>
+      <c r="AH97">
+        <v>2.94</v>
+      </c>
+      <c r="AI97">
+        <v>1.73</v>
+      </c>
+      <c r="AJ97">
+        <v>1.93</v>
+      </c>
+      <c r="AK97">
+        <v>1.02</v>
+      </c>
+      <c r="AL97">
+        <v>1.09</v>
+      </c>
+      <c r="AM97">
+        <v>4.15</v>
+      </c>
+      <c r="AN97">
+        <v>2.29</v>
+      </c>
+      <c r="AO97">
+        <v>1.29</v>
+      </c>
+      <c r="AP97">
+        <v>2.38</v>
+      </c>
+      <c r="AQ97">
+        <v>1.13</v>
+      </c>
+      <c r="AR97">
+        <v>1.85</v>
+      </c>
+      <c r="AS97">
+        <v>1.34</v>
+      </c>
+      <c r="AT97">
+        <v>3.19</v>
+      </c>
+      <c r="AU97">
+        <v>13</v>
+      </c>
+      <c r="AV97">
+        <v>2</v>
+      </c>
+      <c r="AW97">
+        <v>4</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>21</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>0</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>2</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>1.8</v>
+      </c>
+      <c r="BL97">
+        <v>2</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['6', '27', '33', '37', '83', '90+4']</t>
   </si>
   <si>
+    <t>['47', '90+5']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
@@ -635,6 +638,15 @@
   </si>
   <si>
     <t>['10', '52', '63', '65']</t>
+  </si>
+  <si>
+    <t>['32', '90+5']</t>
+  </si>
+  <si>
+    <t>['75', '88']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1667,7 +1679,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1748,7 +1760,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1873,7 +1885,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2285,7 +2297,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2363,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2491,7 +2503,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2569,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2984,7 +2996,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3187,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ11">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3396,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3599,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3808,7 +3820,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>1.21</v>
@@ -4011,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>0.5</v>
@@ -4217,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16">
         <v>1.88</v>
@@ -4345,7 +4357,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4551,7 +4563,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4629,7 +4641,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
         <v>1.88</v>
@@ -4757,7 +4769,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4963,7 +4975,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5375,7 +5387,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5456,7 +5468,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5581,7 +5593,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5662,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>1.55</v>
@@ -5865,7 +5877,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -5993,7 +6005,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6071,7 +6083,7 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6199,7 +6211,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6277,10 +6289,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ26">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR26">
         <v>1.52</v>
@@ -6611,7 +6623,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6817,7 +6829,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7023,7 +7035,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7229,7 +7241,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7435,7 +7447,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7513,7 +7525,7 @@
         <v>0.33</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7641,7 +7653,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7719,7 +7731,7 @@
         <v>0.5</v>
       </c>
       <c r="AP33">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7847,7 +7859,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -7925,10 +7937,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8053,7 +8065,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8134,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR35">
         <v>2.59</v>
@@ -8340,7 +8352,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.33</v>
@@ -8543,10 +8555,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.31</v>
@@ -8671,7 +8683,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8877,7 +8889,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9083,7 +9095,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9289,7 +9301,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -10113,7 +10125,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10319,7 +10331,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10397,10 +10409,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR46">
         <v>1.09</v>
@@ -10525,7 +10537,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10603,7 +10615,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>1.13</v>
@@ -10731,7 +10743,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10812,7 +10824,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR48">
         <v>1.58</v>
@@ -11018,7 +11030,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.98</v>
@@ -11143,7 +11155,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11221,7 +11233,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>0.5</v>
@@ -11427,10 +11439,10 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR51">
         <v>2.09</v>
@@ -11555,7 +11567,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11636,7 +11648,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ52">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.7</v>
@@ -11761,7 +11773,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12048,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12173,7 +12185,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12379,7 +12391,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12663,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12791,7 +12803,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12869,7 +12881,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
         <v>1.13</v>
@@ -12997,7 +13009,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13203,7 +13215,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13281,7 +13293,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.88</v>
@@ -13409,7 +13421,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13490,7 +13502,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -13693,7 +13705,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -13821,7 +13833,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13902,7 +13914,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR63">
         <v>1.28</v>
@@ -14027,7 +14039,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14105,10 +14117,10 @@
         <v>0.8</v>
       </c>
       <c r="AP64">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.94</v>
@@ -14233,7 +14245,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14311,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14439,7 +14451,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14645,7 +14657,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14726,7 +14738,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.44</v>
@@ -14851,7 +14863,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14929,7 +14941,7 @@
         <v>0.8</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15138,7 +15150,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
@@ -15263,7 +15275,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15341,7 +15353,7 @@
         <v>0.8</v>
       </c>
       <c r="AP70">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ70">
         <v>0.63</v>
@@ -15469,7 +15481,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15550,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -15756,7 +15768,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -15881,7 +15893,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16087,7 +16099,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16499,7 +16511,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16580,7 +16592,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ76">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR76">
         <v>1.55</v>
@@ -16989,7 +17001,7 @@
         <v>2.2</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>1.88</v>
@@ -17323,7 +17335,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17401,7 +17413,7 @@
         <v>1.83</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
         <v>1.88</v>
@@ -17735,7 +17747,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -17816,7 +17828,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ82">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18353,7 +18365,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18434,7 +18446,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>2.75</v>
+        <v>2.44</v>
       </c>
       <c r="AR85">
         <v>1.4</v>
@@ -18559,7 +18571,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18640,7 +18652,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.53</v>
@@ -18765,7 +18777,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18843,7 +18855,7 @@
         <v>0.57</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ87">
         <v>0.5</v>
@@ -19177,7 +19189,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19255,10 +19267,10 @@
         <v>2.14</v>
       </c>
       <c r="AP89">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ89">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR89">
         <v>1.8</v>
@@ -19383,7 +19395,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19461,10 +19473,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.54</v>
@@ -19795,7 +19807,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -19873,7 +19885,7 @@
         <v>0.71</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ92">
         <v>0.63</v>
@@ -20001,7 +20013,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20906,7 +20918,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ97">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.85</v>
@@ -20982,6 +20994,830 @@
       </c>
       <c r="BP97">
         <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7580427</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F98">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98" t="s">
+        <v>82</v>
+      </c>
+      <c r="P98" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q98">
+        <v>3.65</v>
+      </c>
+      <c r="R98">
+        <v>2.01</v>
+      </c>
+      <c r="S98">
+        <v>3</v>
+      </c>
+      <c r="T98">
+        <v>1.45</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3.15</v>
+      </c>
+      <c r="W98">
+        <v>1.33</v>
+      </c>
+      <c r="X98">
+        <v>7.2</v>
+      </c>
+      <c r="Y98">
+        <v>1.05</v>
+      </c>
+      <c r="Z98">
+        <v>2.9</v>
+      </c>
+      <c r="AA98">
+        <v>3.1</v>
+      </c>
+      <c r="AB98">
+        <v>2.4</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>7.8</v>
+      </c>
+      <c r="AE98">
+        <v>1.32</v>
+      </c>
+      <c r="AF98">
+        <v>2.78</v>
+      </c>
+      <c r="AG98">
+        <v>2.1</v>
+      </c>
+      <c r="AH98">
+        <v>1.61</v>
+      </c>
+      <c r="AI98">
+        <v>1.86</v>
+      </c>
+      <c r="AJ98">
+        <v>1.84</v>
+      </c>
+      <c r="AK98">
+        <v>1.55</v>
+      </c>
+      <c r="AL98">
+        <v>1.32</v>
+      </c>
+      <c r="AM98">
+        <v>1.37</v>
+      </c>
+      <c r="AN98">
+        <v>1.5</v>
+      </c>
+      <c r="AO98">
+        <v>1.88</v>
+      </c>
+      <c r="AP98">
+        <v>1.33</v>
+      </c>
+      <c r="AQ98">
+        <v>2</v>
+      </c>
+      <c r="AR98">
+        <v>1.57</v>
+      </c>
+      <c r="AS98">
+        <v>1.58</v>
+      </c>
+      <c r="AT98">
+        <v>3.15</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>5</v>
+      </c>
+      <c r="AX98">
+        <v>7</v>
+      </c>
+      <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
+        <v>17</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>9</v>
+      </c>
+      <c r="BC98">
+        <v>12</v>
+      </c>
+      <c r="BD98">
+        <v>2.14</v>
+      </c>
+      <c r="BE98">
+        <v>6.35</v>
+      </c>
+      <c r="BF98">
+        <v>2.08</v>
+      </c>
+      <c r="BG98">
+        <v>1.21</v>
+      </c>
+      <c r="BH98">
+        <v>3.44</v>
+      </c>
+      <c r="BI98">
+        <v>1.43</v>
+      </c>
+      <c r="BJ98">
+        <v>2.46</v>
+      </c>
+      <c r="BK98">
+        <v>1.79</v>
+      </c>
+      <c r="BL98">
+        <v>1.92</v>
+      </c>
+      <c r="BM98">
+        <v>2.24</v>
+      </c>
+      <c r="BN98">
+        <v>1.52</v>
+      </c>
+      <c r="BO98">
+        <v>2.97</v>
+      </c>
+      <c r="BP98">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7580428</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s">
+        <v>71</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>82</v>
+      </c>
+      <c r="P99" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q99">
+        <v>2.88</v>
+      </c>
+      <c r="R99">
+        <v>2.23</v>
+      </c>
+      <c r="S99">
+        <v>3.24</v>
+      </c>
+      <c r="T99">
+        <v>1.34</v>
+      </c>
+      <c r="U99">
+        <v>3.1</v>
+      </c>
+      <c r="V99">
+        <v>2.51</v>
+      </c>
+      <c r="W99">
+        <v>1.49</v>
+      </c>
+      <c r="X99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>1.12</v>
+      </c>
+      <c r="Z99">
+        <v>2.4</v>
+      </c>
+      <c r="AA99">
+        <v>3.25</v>
+      </c>
+      <c r="AB99">
+        <v>2.75</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE99">
+        <v>1.19</v>
+      </c>
+      <c r="AF99">
+        <v>3.56</v>
+      </c>
+      <c r="AG99">
+        <v>1.8</v>
+      </c>
+      <c r="AH99">
+        <v>2</v>
+      </c>
+      <c r="AI99">
+        <v>1.59</v>
+      </c>
+      <c r="AJ99">
+        <v>2.21</v>
+      </c>
+      <c r="AK99">
+        <v>1.44</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.53</v>
+      </c>
+      <c r="AN99">
+        <v>1.63</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.44</v>
+      </c>
+      <c r="AQ99">
+        <v>1.22</v>
+      </c>
+      <c r="AR99">
+        <v>1.48</v>
+      </c>
+      <c r="AS99">
+        <v>1.34</v>
+      </c>
+      <c r="AT99">
+        <v>2.82</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>3</v>
+      </c>
+      <c r="AY99">
+        <v>7</v>
+      </c>
+      <c r="AZ99">
+        <v>16</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>8</v>
+      </c>
+      <c r="BC99">
+        <v>11</v>
+      </c>
+      <c r="BD99">
+        <v>2.04</v>
+      </c>
+      <c r="BE99">
+        <v>6.65</v>
+      </c>
+      <c r="BF99">
+        <v>2.15</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>1.23</v>
+      </c>
+      <c r="BJ99">
+        <v>3.28</v>
+      </c>
+      <c r="BK99">
+        <v>1.45</v>
+      </c>
+      <c r="BL99">
+        <v>2.41</v>
+      </c>
+      <c r="BM99">
+        <v>1.81</v>
+      </c>
+      <c r="BN99">
+        <v>1.89</v>
+      </c>
+      <c r="BO99">
+        <v>2.24</v>
+      </c>
+      <c r="BP99">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7580429</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45633.47916666666</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100" t="s">
+        <v>82</v>
+      </c>
+      <c r="P100" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q100">
+        <v>2.5</v>
+      </c>
+      <c r="R100">
+        <v>2.3</v>
+      </c>
+      <c r="S100">
+        <v>3.75</v>
+      </c>
+      <c r="T100">
+        <v>1.3</v>
+      </c>
+      <c r="U100">
+        <v>3.4</v>
+      </c>
+      <c r="V100">
+        <v>2.5</v>
+      </c>
+      <c r="W100">
+        <v>1.5</v>
+      </c>
+      <c r="X100">
+        <v>5.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.13</v>
+      </c>
+      <c r="Z100">
+        <v>1.87</v>
+      </c>
+      <c r="AA100">
+        <v>3.4</v>
+      </c>
+      <c r="AB100">
+        <v>3.9</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.25</v>
+      </c>
+      <c r="AF100">
+        <v>3.75</v>
+      </c>
+      <c r="AG100">
+        <v>1.6</v>
+      </c>
+      <c r="AH100">
+        <v>2.1</v>
+      </c>
+      <c r="AI100">
+        <v>1.57</v>
+      </c>
+      <c r="AJ100">
+        <v>2.25</v>
+      </c>
+      <c r="AK100">
+        <v>1.18</v>
+      </c>
+      <c r="AL100">
+        <v>1.22</v>
+      </c>
+      <c r="AM100">
+        <v>1.9</v>
+      </c>
+      <c r="AN100">
+        <v>1.5</v>
+      </c>
+      <c r="AO100">
+        <v>1.13</v>
+      </c>
+      <c r="AP100">
+        <v>1.44</v>
+      </c>
+      <c r="AQ100">
+        <v>1.11</v>
+      </c>
+      <c r="AR100">
+        <v>1.45</v>
+      </c>
+      <c r="AS100">
+        <v>1.29</v>
+      </c>
+      <c r="AT100">
+        <v>2.74</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>14</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.45</v>
+      </c>
+      <c r="BE100">
+        <v>9</v>
+      </c>
+      <c r="BF100">
+        <v>3.32</v>
+      </c>
+      <c r="BG100">
+        <v>1.25</v>
+      </c>
+      <c r="BH100">
+        <v>3.75</v>
+      </c>
+      <c r="BI100">
+        <v>1.45</v>
+      </c>
+      <c r="BJ100">
+        <v>2.63</v>
+      </c>
+      <c r="BK100">
+        <v>1.74</v>
+      </c>
+      <c r="BL100">
+        <v>2.02</v>
+      </c>
+      <c r="BM100">
+        <v>2.19</v>
+      </c>
+      <c r="BN100">
+        <v>1.63</v>
+      </c>
+      <c r="BO100">
+        <v>2.82</v>
+      </c>
+      <c r="BP100">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7580425</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45633.58333333334</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>152</v>
+      </c>
+      <c r="P101" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q101">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>2.3</v>
+      </c>
+      <c r="S101">
+        <v>2.88</v>
+      </c>
+      <c r="T101">
+        <v>1.3</v>
+      </c>
+      <c r="U101">
+        <v>3.4</v>
+      </c>
+      <c r="V101">
+        <v>2.38</v>
+      </c>
+      <c r="W101">
+        <v>1.53</v>
+      </c>
+      <c r="X101">
+        <v>5.5</v>
+      </c>
+      <c r="Y101">
+        <v>1.13</v>
+      </c>
+      <c r="Z101">
+        <v>2.6</v>
+      </c>
+      <c r="AA101">
+        <v>3.77</v>
+      </c>
+      <c r="AB101">
+        <v>2.38</v>
+      </c>
+      <c r="AC101">
+        <v>1.03</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.18</v>
+      </c>
+      <c r="AF101">
+        <v>4.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.55</v>
+      </c>
+      <c r="AH101">
+        <v>2.2</v>
+      </c>
+      <c r="AI101">
+        <v>1.53</v>
+      </c>
+      <c r="AJ101">
+        <v>2.38</v>
+      </c>
+      <c r="AK101">
+        <v>1.42</v>
+      </c>
+      <c r="AL101">
+        <v>1.2</v>
+      </c>
+      <c r="AM101">
+        <v>1.62</v>
+      </c>
+      <c r="AN101">
+        <v>2.75</v>
+      </c>
+      <c r="AO101">
+        <v>2.75</v>
+      </c>
+      <c r="AP101">
+        <v>2.78</v>
+      </c>
+      <c r="AQ101">
+        <v>2.44</v>
+      </c>
+      <c r="AR101">
+        <v>1.8</v>
+      </c>
+      <c r="AS101">
+        <v>1.75</v>
+      </c>
+      <c r="AT101">
+        <v>3.55</v>
+      </c>
+      <c r="AU101">
+        <v>8</v>
+      </c>
+      <c r="AV101">
+        <v>3</v>
+      </c>
+      <c r="AW101">
+        <v>5</v>
+      </c>
+      <c r="AX101">
+        <v>3</v>
+      </c>
+      <c r="AY101">
+        <v>19</v>
+      </c>
+      <c r="AZ101">
+        <v>7</v>
+      </c>
+      <c r="BA101">
+        <v>6</v>
+      </c>
+      <c r="BB101">
+        <v>4</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
+        <v>1.89</v>
+      </c>
+      <c r="BE101">
+        <v>6.55</v>
+      </c>
+      <c r="BF101">
+        <v>2.36</v>
+      </c>
+      <c r="BG101">
+        <v>1.18</v>
+      </c>
+      <c r="BH101">
+        <v>3.7</v>
+      </c>
+      <c r="BI101">
+        <v>1.38</v>
+      </c>
+      <c r="BJ101">
+        <v>2.62</v>
+      </c>
+      <c r="BK101">
+        <v>1.72</v>
+      </c>
+      <c r="BL101">
+        <v>2</v>
+      </c>
+      <c r="BM101">
+        <v>2.12</v>
+      </c>
+      <c r="BN101">
+        <v>1.58</v>
+      </c>
+      <c r="BO101">
+        <v>2.78</v>
+      </c>
+      <c r="BP101">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,13 +475,16 @@
     <t>['47', '90+5']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['15', '65', '87']</t>
+  </si>
+  <si>
     <t>['5', '42', '80', '90+2']</t>
   </si>
   <si>
     <t>['11', '57']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['90+3']</t>
@@ -647,6 +650,12 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['2', '33', '45+7']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1679,7 +1688,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1885,7 +1894,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1963,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5">
         <v>1.88</v>
@@ -2172,7 +2181,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2297,7 +2306,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2503,7 +2512,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2584,7 +2593,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3817,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
         <v>1.22</v>
@@ -4026,7 +4035,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>1.66</v>
@@ -4357,7 +4366,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4563,7 +4572,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4769,7 +4778,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4850,7 +4859,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR19">
         <v>1.28</v>
@@ -4975,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5387,7 +5396,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5465,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
         <v>1.11</v>
@@ -5593,7 +5602,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -5880,7 +5889,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR24">
         <v>2.32</v>
@@ -6005,7 +6014,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6211,7 +6220,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6623,7 +6632,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6829,7 +6838,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -7035,7 +7044,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7241,7 +7250,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7447,7 +7456,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7528,7 +7537,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR32">
         <v>1.05</v>
@@ -7653,7 +7662,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7734,7 +7743,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR33">
         <v>2.34</v>
@@ -7859,7 +7868,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8065,7 +8074,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8349,7 +8358,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8683,7 +8692,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8889,7 +8898,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9095,7 +9104,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9176,7 +9185,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR40">
         <v>1.37</v>
@@ -9301,7 +9310,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9379,7 +9388,7 @@
         <v>1.67</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41">
         <v>1.88</v>
@@ -10125,7 +10134,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10331,7 +10340,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10537,7 +10546,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10743,7 +10752,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11155,7 +11164,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11236,7 +11245,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11567,7 +11576,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11773,7 +11782,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -11851,7 +11860,7 @@
         <v>1.33</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ53">
         <v>0.63</v>
@@ -12185,7 +12194,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12266,7 +12275,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55">
         <v>1.52</v>
@@ -12391,7 +12400,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12803,7 +12812,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13009,7 +13018,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q59">
         <v>2.4</v>
@@ -13090,7 +13099,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13215,7 +13224,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13421,7 +13430,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13833,7 +13842,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14039,7 +14048,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14245,7 +14254,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14451,7 +14460,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14657,7 +14666,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14863,7 +14872,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -14944,7 +14953,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR68">
         <v>1.28</v>
@@ -15275,7 +15284,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15481,7 +15490,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15893,7 +15902,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16099,7 +16108,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16383,10 +16392,10 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16511,7 +16520,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17210,7 +17219,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ79">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR79">
         <v>1.8</v>
@@ -17335,7 +17344,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17747,7 +17756,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18365,7 +18374,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18443,7 +18452,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85">
         <v>2.44</v>
@@ -18571,7 +18580,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18777,7 +18786,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -18858,7 +18867,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ87">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR87">
         <v>1.42</v>
@@ -19189,7 +19198,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19395,7 +19404,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19682,7 +19691,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR91">
         <v>1.74</v>
@@ -19807,7 +19816,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20013,7 +20022,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -21001,7 +21010,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7580427</v>
+        <v>7580429</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21010,196 +21019,196 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45633.47916666666</v>
+        <v>45632.875</v>
       </c>
       <c r="F98">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O98" t="s">
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="Q98">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="R98">
-        <v>2.01</v>
+        <v>2.3</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T98">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="U98">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V98">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="W98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X98">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y98">
+        <v>1.13</v>
+      </c>
+      <c r="Z98">
+        <v>1.87</v>
+      </c>
+      <c r="AA98">
+        <v>3.4</v>
+      </c>
+      <c r="AB98">
+        <v>3.9</v>
+      </c>
+      <c r="AC98">
         <v>1.05</v>
       </c>
-      <c r="Z98">
-        <v>2.9</v>
-      </c>
-      <c r="AA98">
-        <v>3.1</v>
-      </c>
-      <c r="AB98">
-        <v>2.4</v>
-      </c>
-      <c r="AC98">
-        <v>1.01</v>
-      </c>
       <c r="AD98">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AE98">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AF98">
-        <v>2.78</v>
+        <v>3.75</v>
       </c>
       <c r="AG98">
+        <v>1.6</v>
+      </c>
+      <c r="AH98">
         <v>2.1</v>
       </c>
-      <c r="AH98">
-        <v>1.61</v>
-      </c>
       <c r="AI98">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AJ98">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="AK98">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AL98">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM98">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="AN98">
         <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AR98">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AS98">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AT98">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="AU98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW98">
         <v>5</v>
       </c>
       <c r="AX98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ98">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.45</v>
+      </c>
+      <c r="BE98">
         <v>9</v>
       </c>
-      <c r="BC98">
-        <v>12</v>
-      </c>
-      <c r="BD98">
-        <v>2.14</v>
-      </c>
-      <c r="BE98">
-        <v>6.35</v>
-      </c>
       <c r="BF98">
-        <v>2.08</v>
+        <v>3.32</v>
       </c>
       <c r="BG98">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="BH98">
-        <v>3.44</v>
+        <v>3.75</v>
       </c>
       <c r="BI98">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="BJ98">
-        <v>2.46</v>
+        <v>2.63</v>
       </c>
       <c r="BK98">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="BL98">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BM98">
-        <v>2.24</v>
+        <v>2.19</v>
       </c>
       <c r="BN98">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="BO98">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="BP98">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21207,7 +21216,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7580428</v>
+        <v>7580427</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21222,19 +21231,19 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -21252,160 +21261,160 @@
         <v>209</v>
       </c>
       <c r="Q99">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="R99">
-        <v>2.23</v>
+        <v>2.01</v>
       </c>
       <c r="S99">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="T99">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3.15</v>
+      </c>
+      <c r="W99">
+        <v>1.33</v>
+      </c>
+      <c r="X99">
+        <v>7.2</v>
+      </c>
+      <c r="Y99">
+        <v>1.05</v>
+      </c>
+      <c r="Z99">
+        <v>2.9</v>
+      </c>
+      <c r="AA99">
         <v>3.1</v>
       </c>
-      <c r="V99">
-        <v>2.51</v>
-      </c>
-      <c r="W99">
-        <v>1.49</v>
-      </c>
-      <c r="X99">
+      <c r="AB99">
+        <v>2.4</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>7.8</v>
+      </c>
+      <c r="AE99">
+        <v>1.32</v>
+      </c>
+      <c r="AF99">
+        <v>2.78</v>
+      </c>
+      <c r="AG99">
+        <v>2.1</v>
+      </c>
+      <c r="AH99">
+        <v>1.61</v>
+      </c>
+      <c r="AI99">
+        <v>1.86</v>
+      </c>
+      <c r="AJ99">
+        <v>1.84</v>
+      </c>
+      <c r="AK99">
+        <v>1.55</v>
+      </c>
+      <c r="AL99">
+        <v>1.32</v>
+      </c>
+      <c r="AM99">
+        <v>1.37</v>
+      </c>
+      <c r="AN99">
+        <v>1.5</v>
+      </c>
+      <c r="AO99">
+        <v>1.88</v>
+      </c>
+      <c r="AP99">
+        <v>1.33</v>
+      </c>
+      <c r="AQ99">
+        <v>2</v>
+      </c>
+      <c r="AR99">
+        <v>1.57</v>
+      </c>
+      <c r="AS99">
+        <v>1.58</v>
+      </c>
+      <c r="AT99">
+        <v>3.15</v>
+      </c>
+      <c r="AU99">
+        <v>3</v>
+      </c>
+      <c r="AV99">
         <v>5</v>
       </c>
-      <c r="Y99">
-        <v>1.12</v>
-      </c>
-      <c r="Z99">
-        <v>2.4</v>
-      </c>
-      <c r="AA99">
-        <v>3.25</v>
-      </c>
-      <c r="AB99">
-        <v>2.75</v>
-      </c>
-      <c r="AC99">
-        <v>1</v>
-      </c>
-      <c r="AD99">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE99">
-        <v>1.19</v>
-      </c>
-      <c r="AF99">
-        <v>3.56</v>
-      </c>
-      <c r="AG99">
-        <v>1.8</v>
-      </c>
-      <c r="AH99">
-        <v>2</v>
-      </c>
-      <c r="AI99">
-        <v>1.59</v>
-      </c>
-      <c r="AJ99">
-        <v>2.21</v>
-      </c>
-      <c r="AK99">
-        <v>1.44</v>
-      </c>
-      <c r="AL99">
-        <v>1.28</v>
-      </c>
-      <c r="AM99">
-        <v>1.53</v>
-      </c>
-      <c r="AN99">
-        <v>1.63</v>
-      </c>
-      <c r="AO99">
-        <v>1</v>
-      </c>
-      <c r="AP99">
-        <v>1.44</v>
-      </c>
-      <c r="AQ99">
-        <v>1.22</v>
-      </c>
-      <c r="AR99">
-        <v>1.48</v>
-      </c>
-      <c r="AS99">
-        <v>1.34</v>
-      </c>
-      <c r="AT99">
-        <v>2.82</v>
-      </c>
-      <c r="AU99">
-        <v>2</v>
-      </c>
-      <c r="AV99">
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
         <v>7</v>
       </c>
-      <c r="AW99">
-        <v>3</v>
-      </c>
-      <c r="AX99">
-        <v>3</v>
-      </c>
       <c r="AY99">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ99">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA99">
         <v>3</v>
       </c>
       <c r="BB99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD99">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="BE99">
-        <v>6.65</v>
+        <v>6.35</v>
       </c>
       <c r="BF99">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="BG99">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BH99">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="BI99">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="BJ99">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
       <c r="BK99">
-        <v>1.45</v>
+        <v>1.79</v>
       </c>
       <c r="BL99">
-        <v>2.41</v>
+        <v>1.92</v>
       </c>
       <c r="BM99">
-        <v>1.81</v>
+        <v>2.24</v>
       </c>
       <c r="BN99">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="BO99">
-        <v>2.24</v>
+        <v>2.97</v>
       </c>
       <c r="BP99">
-        <v>1.52</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21413,7 +21422,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7580429</v>
+        <v>7580428</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21428,10 +21437,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -21446,172 +21455,172 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100" t="s">
         <v>82</v>
       </c>
       <c r="P100" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="Q100">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="R100">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="S100">
-        <v>3.75</v>
+        <v>3.24</v>
       </c>
       <c r="T100">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="U100">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="V100">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="W100">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X100">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y100">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="Z100">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="AA100">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB100">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="AC100">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AD100">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE100">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AF100">
-        <v>3.75</v>
+        <v>3.56</v>
       </c>
       <c r="AG100">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AH100">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI100">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AJ100">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="AK100">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="AL100">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM100">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="AN100">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO100">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AP100">
         <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
+        <v>1.48</v>
+      </c>
+      <c r="AS100">
+        <v>1.34</v>
+      </c>
+      <c r="AT100">
+        <v>2.82</v>
+      </c>
+      <c r="AU100">
+        <v>2</v>
+      </c>
+      <c r="AV100">
+        <v>7</v>
+      </c>
+      <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>3</v>
+      </c>
+      <c r="AY100">
+        <v>7</v>
+      </c>
+      <c r="AZ100">
+        <v>16</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>8</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>2.04</v>
+      </c>
+      <c r="BE100">
+        <v>6.65</v>
+      </c>
+      <c r="BF100">
+        <v>2.15</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
+        <v>1.23</v>
+      </c>
+      <c r="BJ100">
+        <v>3.28</v>
+      </c>
+      <c r="BK100">
         <v>1.45</v>
       </c>
-      <c r="AS100">
-        <v>1.29</v>
-      </c>
-      <c r="AT100">
-        <v>2.74</v>
-      </c>
-      <c r="AU100">
-        <v>5</v>
-      </c>
-      <c r="AV100">
-        <v>4</v>
-      </c>
-      <c r="AW100">
-        <v>5</v>
-      </c>
-      <c r="AX100">
-        <v>4</v>
-      </c>
-      <c r="AY100">
-        <v>14</v>
-      </c>
-      <c r="AZ100">
-        <v>11</v>
-      </c>
-      <c r="BA100">
-        <v>8</v>
-      </c>
-      <c r="BB100">
-        <v>2</v>
-      </c>
-      <c r="BC100">
-        <v>10</v>
-      </c>
-      <c r="BD100">
-        <v>1.45</v>
-      </c>
-      <c r="BE100">
-        <v>9</v>
-      </c>
-      <c r="BF100">
-        <v>3.32</v>
-      </c>
-      <c r="BG100">
-        <v>1.25</v>
-      </c>
-      <c r="BH100">
-        <v>3.75</v>
-      </c>
-      <c r="BI100">
-        <v>1.45</v>
-      </c>
-      <c r="BJ100">
-        <v>2.63</v>
-      </c>
-      <c r="BK100">
-        <v>1.74</v>
-      </c>
       <c r="BL100">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="BM100">
-        <v>2.19</v>
+        <v>1.81</v>
       </c>
       <c r="BN100">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="BO100">
-        <v>2.82</v>
+        <v>2.24</v>
       </c>
       <c r="BP100">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21661,7 +21670,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21818,6 +21827,418 @@
       </c>
       <c r="BP101">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7580426</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45634.47916666666</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>153</v>
+      </c>
+      <c r="P102" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q102">
+        <v>2.55</v>
+      </c>
+      <c r="R102">
+        <v>2.09</v>
+      </c>
+      <c r="S102">
+        <v>4.25</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
+        <v>2.82</v>
+      </c>
+      <c r="V102">
+        <v>2.94</v>
+      </c>
+      <c r="W102">
+        <v>1.37</v>
+      </c>
+      <c r="X102">
+        <v>6.5</v>
+      </c>
+      <c r="Y102">
+        <v>1.07</v>
+      </c>
+      <c r="Z102">
+        <v>2.04</v>
+      </c>
+      <c r="AA102">
+        <v>3.44</v>
+      </c>
+      <c r="AB102">
+        <v>3.46</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>8.1</v>
+      </c>
+      <c r="AE102">
+        <v>1.25</v>
+      </c>
+      <c r="AF102">
+        <v>3.14</v>
+      </c>
+      <c r="AG102">
+        <v>1.95</v>
+      </c>
+      <c r="AH102">
+        <v>1.75</v>
+      </c>
+      <c r="AI102">
+        <v>1.8</v>
+      </c>
+      <c r="AJ102">
+        <v>1.9</v>
+      </c>
+      <c r="AK102">
+        <v>1.26</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.79</v>
+      </c>
+      <c r="AN102">
+        <v>1.25</v>
+      </c>
+      <c r="AO102">
+        <v>0.5</v>
+      </c>
+      <c r="AP102">
+        <v>1.22</v>
+      </c>
+      <c r="AQ102">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR102">
+        <v>1.31</v>
+      </c>
+      <c r="AS102">
+        <v>1.35</v>
+      </c>
+      <c r="AT102">
+        <v>2.66</v>
+      </c>
+      <c r="AU102">
+        <v>7</v>
+      </c>
+      <c r="AV102">
+        <v>8</v>
+      </c>
+      <c r="AW102">
+        <v>7</v>
+      </c>
+      <c r="AX102">
+        <v>6</v>
+      </c>
+      <c r="AY102">
+        <v>18</v>
+      </c>
+      <c r="AZ102">
+        <v>18</v>
+      </c>
+      <c r="BA102">
+        <v>5</v>
+      </c>
+      <c r="BB102">
+        <v>8</v>
+      </c>
+      <c r="BC102">
+        <v>13</v>
+      </c>
+      <c r="BD102">
+        <v>1.95</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>2.1</v>
+      </c>
+      <c r="BG102">
+        <v>1.29</v>
+      </c>
+      <c r="BH102">
+        <v>3.35</v>
+      </c>
+      <c r="BI102">
+        <v>1.53</v>
+      </c>
+      <c r="BJ102">
+        <v>2.41</v>
+      </c>
+      <c r="BK102">
+        <v>1.87</v>
+      </c>
+      <c r="BL102">
+        <v>1.87</v>
+      </c>
+      <c r="BM102">
+        <v>2.38</v>
+      </c>
+      <c r="BN102">
+        <v>1.54</v>
+      </c>
+      <c r="BO102">
+        <v>3.2</v>
+      </c>
+      <c r="BP102">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7580430</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45634.47916666666</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>6</v>
+      </c>
+      <c r="O103" t="s">
+        <v>154</v>
+      </c>
+      <c r="P103" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q103">
+        <v>1.94</v>
+      </c>
+      <c r="R103">
+        <v>2.35</v>
+      </c>
+      <c r="S103">
+        <v>6.1</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.14</v>
+      </c>
+      <c r="V103">
+        <v>2.57</v>
+      </c>
+      <c r="W103">
+        <v>1.47</v>
+      </c>
+      <c r="X103">
+        <v>5.5</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.5</v>
+      </c>
+      <c r="AA103">
+        <v>4.15</v>
+      </c>
+      <c r="AB103">
+        <v>6.15</v>
+      </c>
+      <c r="AC103">
+        <v>1.01</v>
+      </c>
+      <c r="AD103">
+        <v>11</v>
+      </c>
+      <c r="AE103">
+        <v>1.19</v>
+      </c>
+      <c r="AF103">
+        <v>3.62</v>
+      </c>
+      <c r="AG103">
+        <v>1.8</v>
+      </c>
+      <c r="AH103">
+        <v>1.9</v>
+      </c>
+      <c r="AI103">
+        <v>1.89</v>
+      </c>
+      <c r="AJ103">
+        <v>1.81</v>
+      </c>
+      <c r="AK103">
+        <v>1.09</v>
+      </c>
+      <c r="AL103">
+        <v>1.18</v>
+      </c>
+      <c r="AM103">
+        <v>2.67</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>0.5</v>
+      </c>
+      <c r="AP103">
+        <v>1</v>
+      </c>
+      <c r="AQ103">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR103">
+        <v>1.57</v>
+      </c>
+      <c r="AS103">
+        <v>1.11</v>
+      </c>
+      <c r="AT103">
+        <v>2.68</v>
+      </c>
+      <c r="AU103">
+        <v>10</v>
+      </c>
+      <c r="AV103">
+        <v>6</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>7</v>
+      </c>
+      <c r="AY103">
+        <v>27</v>
+      </c>
+      <c r="AZ103">
+        <v>16</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>5</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>1.31</v>
+      </c>
+      <c r="BE103">
+        <v>9.5</v>
+      </c>
+      <c r="BF103">
+        <v>4.13</v>
+      </c>
+      <c r="BG103">
+        <v>1.25</v>
+      </c>
+      <c r="BH103">
+        <v>3.75</v>
+      </c>
+      <c r="BI103">
+        <v>1.45</v>
+      </c>
+      <c r="BJ103">
+        <v>2.63</v>
+      </c>
+      <c r="BK103">
+        <v>1.74</v>
+      </c>
+      <c r="BL103">
+        <v>2.02</v>
+      </c>
+      <c r="BM103">
+        <v>2.19</v>
+      </c>
+      <c r="BN103">
+        <v>1.63</v>
+      </c>
+      <c r="BO103">
+        <v>2.82</v>
+      </c>
+      <c r="BP103">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -21010,7 +21010,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7580429</v>
+        <v>7580427</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21019,196 +21019,196 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45632.875</v>
+        <v>45633.47916666666</v>
       </c>
       <c r="F98">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="Q98">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="R98">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="S98">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T98">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="U98">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V98">
-        <v>2.5</v>
+        <v>3.15</v>
       </c>
       <c r="W98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X98">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y98">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="Z98">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="AA98">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB98">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="AC98">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AD98">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE98">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AF98">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="AG98">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AH98">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="AI98">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AJ98">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="AK98">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AL98">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM98">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="AN98">
         <v>1.5</v>
       </c>
       <c r="AO98">
-        <v>1.13</v>
+        <v>1.88</v>
       </c>
       <c r="AP98">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="AR98">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AS98">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="AT98">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
         <v>5</v>
-      </c>
-      <c r="AV98">
-        <v>4</v>
       </c>
       <c r="AW98">
         <v>5</v>
       </c>
       <c r="AX98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY98">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ98">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB98">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD98">
-        <v>1.45</v>
+        <v>2.14</v>
       </c>
       <c r="BE98">
-        <v>9</v>
+        <v>6.35</v>
       </c>
       <c r="BF98">
-        <v>3.32</v>
+        <v>2.08</v>
       </c>
       <c r="BG98">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BH98">
-        <v>3.75</v>
+        <v>3.44</v>
       </c>
       <c r="BI98">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="BJ98">
-        <v>2.63</v>
+        <v>2.46</v>
       </c>
       <c r="BK98">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="BL98">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BM98">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="BN98">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="BO98">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="BP98">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21216,7 +21216,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7580427</v>
+        <v>7580428</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21231,19 +21231,19 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -21258,163 +21258,163 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q99">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="R99">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="S99">
+        <v>3.24</v>
+      </c>
+      <c r="T99">
+        <v>1.34</v>
+      </c>
+      <c r="U99">
+        <v>3.1</v>
+      </c>
+      <c r="V99">
+        <v>2.51</v>
+      </c>
+      <c r="W99">
+        <v>1.49</v>
+      </c>
+      <c r="X99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>1.12</v>
+      </c>
+      <c r="Z99">
+        <v>2.4</v>
+      </c>
+      <c r="AA99">
+        <v>3.25</v>
+      </c>
+      <c r="AB99">
+        <v>2.75</v>
+      </c>
+      <c r="AC99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE99">
+        <v>1.19</v>
+      </c>
+      <c r="AF99">
+        <v>3.56</v>
+      </c>
+      <c r="AG99">
+        <v>1.8</v>
+      </c>
+      <c r="AH99">
+        <v>2</v>
+      </c>
+      <c r="AI99">
+        <v>1.59</v>
+      </c>
+      <c r="AJ99">
+        <v>2.21</v>
+      </c>
+      <c r="AK99">
+        <v>1.44</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.53</v>
+      </c>
+      <c r="AN99">
+        <v>1.63</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.44</v>
+      </c>
+      <c r="AQ99">
+        <v>1.22</v>
+      </c>
+      <c r="AR99">
+        <v>1.48</v>
+      </c>
+      <c r="AS99">
+        <v>1.34</v>
+      </c>
+      <c r="AT99">
+        <v>2.82</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>7</v>
+      </c>
+      <c r="AW99">
         <v>3</v>
       </c>
-      <c r="T99">
-        <v>1.45</v>
-      </c>
-      <c r="U99">
-        <v>2.63</v>
-      </c>
-      <c r="V99">
-        <v>3.15</v>
-      </c>
-      <c r="W99">
-        <v>1.33</v>
-      </c>
-      <c r="X99">
-        <v>7.2</v>
-      </c>
-      <c r="Y99">
-        <v>1.05</v>
-      </c>
-      <c r="Z99">
-        <v>2.9</v>
-      </c>
-      <c r="AA99">
-        <v>3.1</v>
-      </c>
-      <c r="AB99">
-        <v>2.4</v>
-      </c>
-      <c r="AC99">
-        <v>1.01</v>
-      </c>
-      <c r="AD99">
-        <v>7.8</v>
-      </c>
-      <c r="AE99">
-        <v>1.32</v>
-      </c>
-      <c r="AF99">
-        <v>2.78</v>
-      </c>
-      <c r="AG99">
-        <v>2.1</v>
-      </c>
-      <c r="AH99">
-        <v>1.61</v>
-      </c>
-      <c r="AI99">
-        <v>1.86</v>
-      </c>
-      <c r="AJ99">
-        <v>1.84</v>
-      </c>
-      <c r="AK99">
-        <v>1.55</v>
-      </c>
-      <c r="AL99">
-        <v>1.32</v>
-      </c>
-      <c r="AM99">
-        <v>1.37</v>
-      </c>
-      <c r="AN99">
-        <v>1.5</v>
-      </c>
-      <c r="AO99">
-        <v>1.88</v>
-      </c>
-      <c r="AP99">
-        <v>1.33</v>
-      </c>
-      <c r="AQ99">
-        <v>2</v>
-      </c>
-      <c r="AR99">
-        <v>1.57</v>
-      </c>
-      <c r="AS99">
-        <v>1.58</v>
-      </c>
-      <c r="AT99">
-        <v>3.15</v>
-      </c>
-      <c r="AU99">
+      <c r="AX99">
         <v>3</v>
       </c>
-      <c r="AV99">
-        <v>5</v>
-      </c>
-      <c r="AW99">
-        <v>5</v>
-      </c>
-      <c r="AX99">
+      <c r="AY99">
         <v>7</v>
       </c>
-      <c r="AY99">
-        <v>13</v>
-      </c>
       <c r="AZ99">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA99">
         <v>3</v>
       </c>
       <c r="BB99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC99">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD99">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="BE99">
-        <v>6.35</v>
+        <v>6.65</v>
       </c>
       <c r="BF99">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="BG99">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="BH99">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="BI99">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="BJ99">
-        <v>2.46</v>
+        <v>3.28</v>
       </c>
       <c r="BK99">
-        <v>1.79</v>
+        <v>1.45</v>
       </c>
       <c r="BL99">
-        <v>1.92</v>
+        <v>2.41</v>
       </c>
       <c r="BM99">
+        <v>1.81</v>
+      </c>
+      <c r="BN99">
+        <v>1.89</v>
+      </c>
+      <c r="BO99">
         <v>2.24</v>
       </c>
-      <c r="BN99">
+      <c r="BP99">
         <v>1.52</v>
-      </c>
-      <c r="BO99">
-        <v>2.97</v>
-      </c>
-      <c r="BP99">
-        <v>1.28</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21422,7 +21422,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7580428</v>
+        <v>7580429</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21437,10 +21437,10 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -21455,172 +21455,172 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="s">
         <v>82</v>
       </c>
       <c r="P100" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="Q100">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R100">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="S100">
-        <v>3.24</v>
+        <v>3.75</v>
       </c>
       <c r="T100">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="U100">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="V100">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="W100">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y100">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="Z100">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="AA100">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB100">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AD100">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AE100">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AF100">
-        <v>3.56</v>
+        <v>3.75</v>
       </c>
       <c r="AG100">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AH100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AI100">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AJ100">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AK100">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="AL100">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM100">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="AN100">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO100">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP100">
         <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AR100">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AS100">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AT100">
+        <v>2.74</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>5</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>14</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.45</v>
+      </c>
+      <c r="BE100">
+        <v>9</v>
+      </c>
+      <c r="BF100">
+        <v>3.32</v>
+      </c>
+      <c r="BG100">
+        <v>1.25</v>
+      </c>
+      <c r="BH100">
+        <v>3.75</v>
+      </c>
+      <c r="BI100">
+        <v>1.45</v>
+      </c>
+      <c r="BJ100">
+        <v>2.63</v>
+      </c>
+      <c r="BK100">
+        <v>1.74</v>
+      </c>
+      <c r="BL100">
+        <v>2.02</v>
+      </c>
+      <c r="BM100">
+        <v>2.19</v>
+      </c>
+      <c r="BN100">
+        <v>1.63</v>
+      </c>
+      <c r="BO100">
         <v>2.82</v>
       </c>
-      <c r="AU100">
-        <v>2</v>
-      </c>
-      <c r="AV100">
-        <v>7</v>
-      </c>
-      <c r="AW100">
-        <v>3</v>
-      </c>
-      <c r="AX100">
-        <v>3</v>
-      </c>
-      <c r="AY100">
-        <v>7</v>
-      </c>
-      <c r="AZ100">
-        <v>16</v>
-      </c>
-      <c r="BA100">
-        <v>3</v>
-      </c>
-      <c r="BB100">
-        <v>8</v>
-      </c>
-      <c r="BC100">
-        <v>11</v>
-      </c>
-      <c r="BD100">
-        <v>2.04</v>
-      </c>
-      <c r="BE100">
-        <v>6.65</v>
-      </c>
-      <c r="BF100">
-        <v>2.15</v>
-      </c>
-      <c r="BG100">
-        <v>0</v>
-      </c>
-      <c r="BH100">
-        <v>0</v>
-      </c>
-      <c r="BI100">
-        <v>1.23</v>
-      </c>
-      <c r="BJ100">
-        <v>3.28</v>
-      </c>
-      <c r="BK100">
-        <v>1.45</v>
-      </c>
-      <c r="BL100">
-        <v>2.41</v>
-      </c>
-      <c r="BM100">
-        <v>1.81</v>
-      </c>
-      <c r="BN100">
-        <v>1.89</v>
-      </c>
-      <c r="BO100">
-        <v>2.24</v>
-      </c>
       <c r="BP100">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="101" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,12 @@
   </si>
   <si>
     <t>['15', '65', '87']</t>
+  </si>
+  <si>
+    <t>['7', '65']</t>
+  </si>
+  <si>
+    <t>['57', '69']</t>
   </si>
   <si>
     <t>['5', '42', '80', '90+2']</t>
@@ -1017,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ3">
         <v>1.88</v>
@@ -1688,7 +1694,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1894,7 +1900,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -1975,7 +1981,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ5">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2178,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.5600000000000001</v>
@@ -2512,7 +2518,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -2796,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3002,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ10">
         <v>1.22</v>
@@ -4241,7 +4247,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ16">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>2.2</v>
@@ -4366,7 +4372,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4444,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ17">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>1.31</v>
@@ -4572,7 +4578,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4653,7 +4659,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>1.61</v>
@@ -4778,7 +4784,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4856,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
         <v>0.5600000000000001</v>
@@ -4984,7 +4990,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5062,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5268,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.88</v>
@@ -5396,7 +5402,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5602,7 +5608,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6014,7 +6020,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6220,7 +6226,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6507,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6632,7 +6638,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6838,7 +6844,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6916,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7044,7 +7050,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7122,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ30">
         <v>1.88</v>
@@ -7250,7 +7256,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7328,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -7456,7 +7462,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7662,7 +7668,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7868,7 +7874,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8074,7 +8080,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8692,7 +8698,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8770,10 +8776,10 @@
         <v>1.33</v>
       </c>
       <c r="AP38">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ38">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR38">
         <v>1.64</v>
@@ -8898,7 +8904,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -8979,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9104,7 +9110,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9310,7 +9316,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9594,10 +9600,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9800,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -10006,7 +10012,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10134,7 +10140,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10215,7 +10221,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ45">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR45">
         <v>1.33</v>
@@ -10340,7 +10346,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10546,7 +10552,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10627,7 +10633,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.38</v>
@@ -10752,7 +10758,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10830,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ48">
         <v>1.22</v>
@@ -11164,7 +11170,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11576,7 +11582,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11654,7 +11660,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
         <v>2</v>
@@ -11782,7 +11788,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -11863,7 +11869,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ53">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR53">
         <v>1.35</v>
@@ -12194,7 +12200,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12272,7 +12278,7 @@
         <v>0.4</v>
       </c>
       <c r="AP55">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
         <v>0.5600000000000001</v>
@@ -12400,7 +12406,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12812,7 +12818,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12893,7 +12899,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13096,7 +13102,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>0.5600000000000001</v>
@@ -13224,7 +13230,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13305,7 +13311,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13430,7 +13436,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13508,7 +13514,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
         <v>2.44</v>
@@ -13842,7 +13848,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14048,7 +14054,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14254,7 +14260,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14335,7 +14341,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR65">
         <v>1.47</v>
@@ -14460,7 +14466,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14541,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.77</v>
@@ -14666,7 +14672,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14744,7 +14750,7 @@
         <v>1.8</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -14872,7 +14878,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15284,7 +15290,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15365,7 +15371,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ70">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70">
         <v>1.9</v>
@@ -15490,7 +15496,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15774,7 +15780,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -15902,7 +15908,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -15980,7 +15986,7 @@
         <v>0.83</v>
       </c>
       <c r="AP73">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16108,7 +16114,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16189,7 +16195,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ74">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR74">
         <v>1.41</v>
@@ -16520,7 +16526,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16598,7 +16604,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
         <v>2.44</v>
@@ -17216,7 +17222,7 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ79">
         <v>0.5600000000000001</v>
@@ -17344,7 +17350,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17628,10 +17634,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ81">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81">
         <v>1.54</v>
@@ -17756,7 +17762,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -18040,10 +18046,10 @@
         <v>1.17</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18374,7 +18380,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18580,7 +18586,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18786,7 +18792,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19198,7 +19204,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19404,7 +19410,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19688,7 +19694,7 @@
         <v>0.57</v>
       </c>
       <c r="AP91">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0.5600000000000001</v>
@@ -19816,7 +19822,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -19897,7 +19903,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR92">
         <v>1.34</v>
@@ -20022,7 +20028,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20100,7 +20106,7 @@
         <v>1.71</v>
       </c>
       <c r="AP93">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
@@ -20306,10 +20312,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
         <v>1.72</v>
@@ -20512,7 +20518,7 @@
         <v>0.57</v>
       </c>
       <c r="AP95">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ95">
         <v>0.5</v>
@@ -20721,7 +20727,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -20924,7 +20930,7 @@
         <v>1.29</v>
       </c>
       <c r="AP97">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ97">
         <v>1.11</v>
@@ -21052,7 +21058,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21258,7 +21264,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21670,7 +21676,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21876,7 +21882,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22082,7 +22088,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22238,6 +22244,830 @@
         <v>2.82</v>
       </c>
       <c r="BP103">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7580434</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104" t="s">
+        <v>82</v>
+      </c>
+      <c r="P104" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q104">
+        <v>2.71</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>3.54</v>
+      </c>
+      <c r="T104">
+        <v>1.32</v>
+      </c>
+      <c r="U104">
+        <v>3.22</v>
+      </c>
+      <c r="V104">
+        <v>2.57</v>
+      </c>
+      <c r="W104">
+        <v>1.47</v>
+      </c>
+      <c r="X104">
+        <v>5.7</v>
+      </c>
+      <c r="Y104">
+        <v>1.12</v>
+      </c>
+      <c r="Z104">
+        <v>2.02</v>
+      </c>
+      <c r="AA104">
+        <v>3.35</v>
+      </c>
+      <c r="AB104">
+        <v>2.93</v>
+      </c>
+      <c r="AC104">
+        <v>1.01</v>
+      </c>
+      <c r="AD104">
+        <v>11</v>
+      </c>
+      <c r="AE104">
+        <v>1.16</v>
+      </c>
+      <c r="AF104">
+        <v>3.86</v>
+      </c>
+      <c r="AG104">
+        <v>1.76</v>
+      </c>
+      <c r="AH104">
+        <v>2</v>
+      </c>
+      <c r="AI104">
+        <v>1.59</v>
+      </c>
+      <c r="AJ104">
+        <v>2.21</v>
+      </c>
+      <c r="AK104">
+        <v>1.36</v>
+      </c>
+      <c r="AL104">
+        <v>1.27</v>
+      </c>
+      <c r="AM104">
+        <v>1.65</v>
+      </c>
+      <c r="AN104">
+        <v>1.13</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>1.11</v>
+      </c>
+      <c r="AQ104">
+        <v>1</v>
+      </c>
+      <c r="AR104">
+        <v>1.51</v>
+      </c>
+      <c r="AS104">
+        <v>1.45</v>
+      </c>
+      <c r="AT104">
+        <v>2.96</v>
+      </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
+      <c r="AV104">
+        <v>4</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>6</v>
+      </c>
+      <c r="AY104">
+        <v>17</v>
+      </c>
+      <c r="AZ104">
+        <v>14</v>
+      </c>
+      <c r="BA104">
+        <v>3</v>
+      </c>
+      <c r="BB104">
+        <v>4</v>
+      </c>
+      <c r="BC104">
+        <v>7</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7580435</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
+      </c>
+      <c r="H105" t="s">
+        <v>73</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>141</v>
+      </c>
+      <c r="P105" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q105">
+        <v>2.07</v>
+      </c>
+      <c r="R105">
+        <v>2.24</v>
+      </c>
+      <c r="S105">
+        <v>5.7</v>
+      </c>
+      <c r="T105">
+        <v>1.37</v>
+      </c>
+      <c r="U105">
+        <v>2.95</v>
+      </c>
+      <c r="V105">
+        <v>2.74</v>
+      </c>
+      <c r="W105">
+        <v>1.42</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.09</v>
+      </c>
+      <c r="Z105">
+        <v>1.53</v>
+      </c>
+      <c r="AA105">
+        <v>3.75</v>
+      </c>
+      <c r="AB105">
+        <v>5</v>
+      </c>
+      <c r="AC105">
+        <v>1.02</v>
+      </c>
+      <c r="AD105">
+        <v>10</v>
+      </c>
+      <c r="AE105">
+        <v>1.23</v>
+      </c>
+      <c r="AF105">
+        <v>3.28</v>
+      </c>
+      <c r="AG105">
+        <v>1.89</v>
+      </c>
+      <c r="AH105">
+        <v>1.87</v>
+      </c>
+      <c r="AI105">
+        <v>1.92</v>
+      </c>
+      <c r="AJ105">
+        <v>1.79</v>
+      </c>
+      <c r="AK105">
+        <v>1.12</v>
+      </c>
+      <c r="AL105">
+        <v>1.22</v>
+      </c>
+      <c r="AM105">
+        <v>2.41</v>
+      </c>
+      <c r="AN105">
+        <v>1.88</v>
+      </c>
+      <c r="AO105">
+        <v>1.13</v>
+      </c>
+      <c r="AP105">
+        <v>2</v>
+      </c>
+      <c r="AQ105">
+        <v>1</v>
+      </c>
+      <c r="AR105">
+        <v>1.8</v>
+      </c>
+      <c r="AS105">
+        <v>1.16</v>
+      </c>
+      <c r="AT105">
+        <v>2.96</v>
+      </c>
+      <c r="AU105">
+        <v>8</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>6</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>17</v>
+      </c>
+      <c r="AZ105">
+        <v>5</v>
+      </c>
+      <c r="BA105">
+        <v>7</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>7</v>
+      </c>
+      <c r="BD105">
+        <v>1.3</v>
+      </c>
+      <c r="BE105">
+        <v>9.5</v>
+      </c>
+      <c r="BF105">
+        <v>4.33</v>
+      </c>
+      <c r="BG105">
+        <v>1.26</v>
+      </c>
+      <c r="BH105">
+        <v>3.6</v>
+      </c>
+      <c r="BI105">
+        <v>1.48</v>
+      </c>
+      <c r="BJ105">
+        <v>2.55</v>
+      </c>
+      <c r="BK105">
+        <v>1.95</v>
+      </c>
+      <c r="BL105">
+        <v>1.85</v>
+      </c>
+      <c r="BM105">
+        <v>2.25</v>
+      </c>
+      <c r="BN105">
+        <v>1.6</v>
+      </c>
+      <c r="BO105">
+        <v>2.93</v>
+      </c>
+      <c r="BP105">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7580436</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45640.47916666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>71</v>
+      </c>
+      <c r="H106" t="s">
+        <v>75</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>155</v>
+      </c>
+      <c r="P106" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q106">
+        <v>2.5</v>
+      </c>
+      <c r="R106">
+        <v>2.15</v>
+      </c>
+      <c r="S106">
+        <v>4</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>2.99</v>
+      </c>
+      <c r="V106">
+        <v>2.65</v>
+      </c>
+      <c r="W106">
+        <v>1.43</v>
+      </c>
+      <c r="X106">
+        <v>6.1</v>
+      </c>
+      <c r="Y106">
+        <v>1.1</v>
+      </c>
+      <c r="Z106">
+        <v>1.9</v>
+      </c>
+      <c r="AA106">
+        <v>3.4</v>
+      </c>
+      <c r="AB106">
+        <v>3.35</v>
+      </c>
+      <c r="AC106">
+        <v>1.02</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.25</v>
+      </c>
+      <c r="AF106">
+        <v>3.6</v>
+      </c>
+      <c r="AG106">
+        <v>1.79</v>
+      </c>
+      <c r="AH106">
+        <v>1.97</v>
+      </c>
+      <c r="AI106">
+        <v>1.7</v>
+      </c>
+      <c r="AJ106">
+        <v>2.1</v>
+      </c>
+      <c r="AK106">
+        <v>1.25</v>
+      </c>
+      <c r="AL106">
+        <v>1.22</v>
+      </c>
+      <c r="AM106">
+        <v>1.8</v>
+      </c>
+      <c r="AN106">
+        <v>1.25</v>
+      </c>
+      <c r="AO106">
+        <v>0.63</v>
+      </c>
+      <c r="AP106">
+        <v>1.44</v>
+      </c>
+      <c r="AQ106">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR106">
+        <v>1.71</v>
+      </c>
+      <c r="AS106">
+        <v>1.31</v>
+      </c>
+      <c r="AT106">
+        <v>3.02</v>
+      </c>
+      <c r="AU106">
+        <v>14</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
+        <v>7</v>
+      </c>
+      <c r="AX106">
+        <v>2</v>
+      </c>
+      <c r="AY106">
+        <v>23</v>
+      </c>
+      <c r="AZ106">
+        <v>9</v>
+      </c>
+      <c r="BA106">
+        <v>4</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>1.66</v>
+      </c>
+      <c r="BE106">
+        <v>8.4</v>
+      </c>
+      <c r="BF106">
+        <v>2.6</v>
+      </c>
+      <c r="BG106">
+        <v>1.19</v>
+      </c>
+      <c r="BH106">
+        <v>4.4</v>
+      </c>
+      <c r="BI106">
+        <v>1.35</v>
+      </c>
+      <c r="BJ106">
+        <v>3.07</v>
+      </c>
+      <c r="BK106">
+        <v>1.59</v>
+      </c>
+      <c r="BL106">
+        <v>2.27</v>
+      </c>
+      <c r="BM106">
+        <v>1.95</v>
+      </c>
+      <c r="BN106">
+        <v>1.8</v>
+      </c>
+      <c r="BO106">
+        <v>2.47</v>
+      </c>
+      <c r="BP106">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7580432</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45640.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>156</v>
+      </c>
+      <c r="P107" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q107">
+        <v>2.07</v>
+      </c>
+      <c r="R107">
+        <v>2.32</v>
+      </c>
+      <c r="S107">
+        <v>5.25</v>
+      </c>
+      <c r="T107">
+        <v>1.31</v>
+      </c>
+      <c r="U107">
+        <v>3.28</v>
+      </c>
+      <c r="V107">
+        <v>2.51</v>
+      </c>
+      <c r="W107">
+        <v>1.49</v>
+      </c>
+      <c r="X107">
+        <v>5.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.13</v>
+      </c>
+      <c r="Z107">
+        <v>1.62</v>
+      </c>
+      <c r="AA107">
+        <v>3.7</v>
+      </c>
+      <c r="AB107">
+        <v>4.3</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.15</v>
+      </c>
+      <c r="AF107">
+        <v>4</v>
+      </c>
+      <c r="AG107">
+        <v>1.75</v>
+      </c>
+      <c r="AH107">
+        <v>1.95</v>
+      </c>
+      <c r="AI107">
+        <v>1.72</v>
+      </c>
+      <c r="AJ107">
+        <v>2</v>
+      </c>
+      <c r="AK107">
+        <v>1.14</v>
+      </c>
+      <c r="AL107">
+        <v>1.21</v>
+      </c>
+      <c r="AM107">
+        <v>2.34</v>
+      </c>
+      <c r="AN107">
+        <v>2.38</v>
+      </c>
+      <c r="AO107">
+        <v>1.88</v>
+      </c>
+      <c r="AP107">
+        <v>2.44</v>
+      </c>
+      <c r="AQ107">
+        <v>1.67</v>
+      </c>
+      <c r="AR107">
+        <v>1.92</v>
+      </c>
+      <c r="AS107">
+        <v>1.51</v>
+      </c>
+      <c r="AT107">
+        <v>3.43</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>8</v>
+      </c>
+      <c r="AW107">
+        <v>5</v>
+      </c>
+      <c r="AX107">
+        <v>8</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>20</v>
+      </c>
+      <c r="BA107">
+        <v>6</v>
+      </c>
+      <c r="BB107">
+        <v>7</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>1.51</v>
+      </c>
+      <c r="BE107">
+        <v>8.6</v>
+      </c>
+      <c r="BF107">
+        <v>3.06</v>
+      </c>
+      <c r="BG107">
+        <v>1.25</v>
+      </c>
+      <c r="BH107">
+        <v>3.75</v>
+      </c>
+      <c r="BI107">
+        <v>1.45</v>
+      </c>
+      <c r="BJ107">
+        <v>2.63</v>
+      </c>
+      <c r="BK107">
+        <v>1.8</v>
+      </c>
+      <c r="BL107">
+        <v>2</v>
+      </c>
+      <c r="BM107">
+        <v>2.19</v>
+      </c>
+      <c r="BN107">
+        <v>1.63</v>
+      </c>
+      <c r="BO107">
+        <v>2.82</v>
+      </c>
+      <c r="BP107">
         <v>1.4</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['57', '69']</t>
+  </si>
+  <si>
+    <t>['27', '68', '90']</t>
   </si>
   <si>
     <t>['5', '42', '80', '90+2']</t>
@@ -1023,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +1572,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1694,7 +1697,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>4.75</v>
@@ -1772,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ4">
         <v>2.44</v>
@@ -1900,7 +1903,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2393,7 +2396,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2518,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>2.56</v>
@@ -4372,7 +4375,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>1.7</v>
@@ -4578,7 +4581,7 @@
         <v>82</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>4.5</v>
@@ -4784,7 +4787,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>2.57</v>
@@ -4990,7 +4993,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>2.07</v>
@@ -5071,7 +5074,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR20">
         <v>1.25</v>
@@ -5277,7 +5280,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR21">
         <v>1.9</v>
@@ -5402,7 +5405,7 @@
         <v>82</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -5608,7 +5611,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>4.95</v>
@@ -6020,7 +6023,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6226,7 +6229,7 @@
         <v>82</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>3.9</v>
@@ -6638,7 +6641,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6716,7 +6719,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6844,7 +6847,7 @@
         <v>101</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>2.53</v>
@@ -6925,7 +6928,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR29">
         <v>1.86</v>
@@ -7050,7 +7053,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>2.3</v>
@@ -7131,7 +7134,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ30">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7256,7 +7259,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.25</v>
@@ -7462,7 +7465,7 @@
         <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3.6</v>
@@ -7668,7 +7671,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>1.83</v>
@@ -7874,7 +7877,7 @@
         <v>105</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>2.1</v>
@@ -8080,7 +8083,7 @@
         <v>106</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8698,7 +8701,7 @@
         <v>82</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2.88</v>
@@ -8904,7 +8907,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9110,7 +9113,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9188,7 +9191,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ40">
         <v>0.5600000000000001</v>
@@ -9316,7 +9319,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>4.36</v>
@@ -9397,7 +9400,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9809,7 +9812,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -10140,7 +10143,7 @@
         <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10218,7 +10221,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ45">
         <v>0.5600000000000001</v>
@@ -10346,7 +10349,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10552,7 +10555,7 @@
         <v>117</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.49</v>
@@ -10758,7 +10761,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11170,7 +11173,7 @@
         <v>119</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>2.5</v>
@@ -11582,7 +11585,7 @@
         <v>82</v>
       </c>
       <c r="P52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11788,7 +11791,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>3.22</v>
@@ -12200,7 +12203,7 @@
         <v>123</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>1.83</v>
@@ -12406,7 +12409,7 @@
         <v>82</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.58</v>
@@ -12487,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="AQ56">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR56">
         <v>1.86</v>
@@ -12818,7 +12821,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13230,7 +13233,7 @@
         <v>85</v>
       </c>
       <c r="P60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13436,7 +13439,7 @@
         <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13723,7 +13726,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ62">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR62">
         <v>2</v>
@@ -13848,7 +13851,7 @@
         <v>128</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13926,7 +13929,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ63">
         <v>1.22</v>
@@ -14054,7 +14057,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>1.9</v>
@@ -14260,7 +14263,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q65">
         <v>2.8</v>
@@ -14466,7 +14469,7 @@
         <v>119</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>2.02</v>
@@ -14672,7 +14675,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>3.75</v>
@@ -14878,7 +14881,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15290,7 +15293,7 @@
         <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -15496,7 +15499,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15908,7 +15911,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>1.83</v>
@@ -16114,7 +16117,7 @@
         <v>82</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16192,7 +16195,7 @@
         <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ74">
         <v>1.67</v>
@@ -16526,7 +16529,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16813,7 +16816,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR77">
         <v>1.54</v>
@@ -17019,7 +17022,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR78">
         <v>1.45</v>
@@ -17350,7 +17353,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q80">
         <v>4.5</v>
@@ -17431,7 +17434,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ80">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR80">
         <v>1.35</v>
@@ -17762,7 +17765,7 @@
         <v>140</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>5.35</v>
@@ -17840,7 +17843,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ82">
         <v>2</v>
@@ -18255,7 +18258,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR84">
         <v>1.59</v>
@@ -18380,7 +18383,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18586,7 +18589,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18792,7 +18795,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>2.5</v>
@@ -19204,7 +19207,7 @@
         <v>144</v>
       </c>
       <c r="P89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q89">
         <v>2.75</v>
@@ -19410,7 +19413,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>2</v>
@@ -19822,7 +19825,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.88</v>
@@ -20028,7 +20031,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -20109,7 +20112,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ93">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR93">
         <v>1.53</v>
@@ -20521,7 +20524,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ95">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR95">
         <v>1.73</v>
@@ -20724,7 +20727,7 @@
         <v>1.14</v>
       </c>
       <c r="AP96">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21058,7 +21061,7 @@
         <v>82</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>3.65</v>
@@ -21264,7 +21267,7 @@
         <v>82</v>
       </c>
       <c r="P99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>2.88</v>
@@ -21676,7 +21679,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -21882,7 +21885,7 @@
         <v>153</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q102">
         <v>2.55</v>
@@ -22088,7 +22091,7 @@
         <v>154</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q103">
         <v>1.94</v>
@@ -22261,7 +22264,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45640.47916666666</v>
+        <v>45639.875</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -22467,7 +22470,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45640.47916666666</v>
+        <v>45639.875</v>
       </c>
       <c r="F105">
         <v>18</v>
@@ -22673,7 +22676,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45640.47916666666</v>
+        <v>45639.875</v>
       </c>
       <c r="F106">
         <v>18</v>
@@ -23069,6 +23072,418 @@
       </c>
       <c r="BP107">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7580431</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45641.47916666666</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>70</v>
+      </c>
+      <c r="H108" t="s">
+        <v>81</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108" t="s">
+        <v>82</v>
+      </c>
+      <c r="P108" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q108">
+        <v>4.55</v>
+      </c>
+      <c r="R108">
+        <v>2.23</v>
+      </c>
+      <c r="S108">
+        <v>2.29</v>
+      </c>
+      <c r="T108">
+        <v>1.34</v>
+      </c>
+      <c r="U108">
+        <v>3.1</v>
+      </c>
+      <c r="V108">
+        <v>2.6</v>
+      </c>
+      <c r="W108">
+        <v>1.46</v>
+      </c>
+      <c r="X108">
+        <v>5.9</v>
+      </c>
+      <c r="Y108">
+        <v>1.11</v>
+      </c>
+      <c r="Z108">
+        <v>3.3</v>
+      </c>
+      <c r="AA108">
+        <v>3.1</v>
+      </c>
+      <c r="AB108">
+        <v>1.84</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>11</v>
+      </c>
+      <c r="AE108">
+        <v>1.19</v>
+      </c>
+      <c r="AF108">
+        <v>3.64</v>
+      </c>
+      <c r="AG108">
+        <v>1.81</v>
+      </c>
+      <c r="AH108">
+        <v>1.97</v>
+      </c>
+      <c r="AI108">
+        <v>1.7</v>
+      </c>
+      <c r="AJ108">
+        <v>2.03</v>
+      </c>
+      <c r="AK108">
+        <v>1.99</v>
+      </c>
+      <c r="AL108">
+        <v>1.25</v>
+      </c>
+      <c r="AM108">
+        <v>1.21</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
+        <v>1.88</v>
+      </c>
+      <c r="AP108">
+        <v>1</v>
+      </c>
+      <c r="AQ108">
+        <v>1.78</v>
+      </c>
+      <c r="AR108">
+        <v>1.59</v>
+      </c>
+      <c r="AS108">
+        <v>1.35</v>
+      </c>
+      <c r="AT108">
+        <v>2.94</v>
+      </c>
+      <c r="AU108">
+        <v>6</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>3</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>12</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>7</v>
+      </c>
+      <c r="BB108">
+        <v>4</v>
+      </c>
+      <c r="BC108">
+        <v>11</v>
+      </c>
+      <c r="BD108">
+        <v>2.61</v>
+      </c>
+      <c r="BE108">
+        <v>8.1</v>
+      </c>
+      <c r="BF108">
+        <v>1.67</v>
+      </c>
+      <c r="BG108">
+        <v>1.29</v>
+      </c>
+      <c r="BH108">
+        <v>3.35</v>
+      </c>
+      <c r="BI108">
+        <v>1.53</v>
+      </c>
+      <c r="BJ108">
+        <v>2.41</v>
+      </c>
+      <c r="BK108">
+        <v>1.88</v>
+      </c>
+      <c r="BL108">
+        <v>1.92</v>
+      </c>
+      <c r="BM108">
+        <v>2.38</v>
+      </c>
+      <c r="BN108">
+        <v>1.54</v>
+      </c>
+      <c r="BO108">
+        <v>3.2</v>
+      </c>
+      <c r="BP108">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7580433</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45641.47916666666</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>72</v>
+      </c>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>157</v>
+      </c>
+      <c r="P109" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q109">
+        <v>3.28</v>
+      </c>
+      <c r="R109">
+        <v>2.16</v>
+      </c>
+      <c r="S109">
+        <v>2.97</v>
+      </c>
+      <c r="T109">
+        <v>1.36</v>
+      </c>
+      <c r="U109">
+        <v>2.99</v>
+      </c>
+      <c r="V109">
+        <v>2.67</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>6</v>
+      </c>
+      <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>2.5</v>
+      </c>
+      <c r="AA109">
+        <v>3</v>
+      </c>
+      <c r="AB109">
+        <v>2.29</v>
+      </c>
+      <c r="AC109">
+        <v>1.02</v>
+      </c>
+      <c r="AD109">
+        <v>10</v>
+      </c>
+      <c r="AE109">
+        <v>1.22</v>
+      </c>
+      <c r="AF109">
+        <v>3.35</v>
+      </c>
+      <c r="AG109">
+        <v>1.82</v>
+      </c>
+      <c r="AH109">
+        <v>1.96</v>
+      </c>
+      <c r="AI109">
+        <v>1.65</v>
+      </c>
+      <c r="AJ109">
+        <v>2.11</v>
+      </c>
+      <c r="AK109">
+        <v>1.52</v>
+      </c>
+      <c r="AL109">
+        <v>1.28</v>
+      </c>
+      <c r="AM109">
+        <v>1.44</v>
+      </c>
+      <c r="AN109">
+        <v>0.5</v>
+      </c>
+      <c r="AO109">
+        <v>0.5</v>
+      </c>
+      <c r="AP109">
+        <v>0.78</v>
+      </c>
+      <c r="AQ109">
+        <v>0.44</v>
+      </c>
+      <c r="AR109">
+        <v>1.38</v>
+      </c>
+      <c r="AS109">
+        <v>1.16</v>
+      </c>
+      <c r="AT109">
+        <v>2.54</v>
+      </c>
+      <c r="AU109">
+        <v>9</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>4</v>
+      </c>
+      <c r="AX109">
+        <v>1</v>
+      </c>
+      <c r="AY109">
+        <v>20</v>
+      </c>
+      <c r="AZ109">
+        <v>14</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>1.92</v>
+      </c>
+      <c r="BE109">
+        <v>6.95</v>
+      </c>
+      <c r="BF109">
+        <v>2.27</v>
+      </c>
+      <c r="BG109">
+        <v>1.25</v>
+      </c>
+      <c r="BH109">
+        <v>3.68</v>
+      </c>
+      <c r="BI109">
+        <v>1.46</v>
+      </c>
+      <c r="BJ109">
+        <v>2.6</v>
+      </c>
+      <c r="BK109">
+        <v>1.76</v>
+      </c>
+      <c r="BL109">
+        <v>2</v>
+      </c>
+      <c r="BM109">
+        <v>2.21</v>
+      </c>
+      <c r="BN109">
+        <v>1.62</v>
+      </c>
+      <c r="BO109">
+        <v>2.87</v>
+      </c>
+      <c r="BP109">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -23088,7 +23088,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45641.47916666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F108">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -22264,7 +22264,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45639.875</v>
+        <v>45640.47916666666</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -22390,22 +22390,22 @@
         <v>2.96</v>
       </c>
       <c r="AU104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV104">
         <v>4</v>
       </c>
       <c r="AW104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY104">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ104">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA104">
         <v>3</v>
@@ -22470,7 +22470,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45639.875</v>
+        <v>45640.47916666666</v>
       </c>
       <c r="F105">
         <v>18</v>
@@ -22602,13 +22602,13 @@
         <v>3</v>
       </c>
       <c r="AW105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX105">
         <v>2</v>
       </c>
       <c r="AY105">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ105">
         <v>5</v>
@@ -22676,7 +22676,7 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45639.875</v>
+        <v>45640.47916666666</v>
       </c>
       <c r="F106">
         <v>18</v>
@@ -22802,22 +22802,22 @@
         <v>3.02</v>
       </c>
       <c r="AU106">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AV106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW106">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX106">
         <v>2</v>
       </c>
       <c r="AY106">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ106">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA106">
         <v>4</v>
@@ -23088,7 +23088,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45640.875</v>
+        <v>45641.47916666666</v>
       </c>
       <c r="F108">
         <v>18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20242025.xlsx
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ4">
         <v>2.44</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ5">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ7">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2593,25 +2593,25 @@
         <v>1.83</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AU8">
         <v>8</v>
@@ -2799,25 +2799,25 @@
         <v>1.99</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
+        <v>0.83</v>
+      </c>
+      <c r="AQ9">
         <v>1.11</v>
       </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AU9">
         <v>6</v>
@@ -3005,25 +3005,25 @@
         <v>3.05</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
         <v>2.44</v>
       </c>
       <c r="AQ10">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AU10">
         <v>4</v>
@@ -3211,25 +3211,25 @@
         <v>1.19</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ11">
         <v>2</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AU11">
         <v>3</v>
@@ -3417,25 +3417,25 @@
         <v>2.83</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AU12">
         <v>9</v>
@@ -3623,25 +3623,25 @@
         <v>2.66</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AS13">
-        <v>0.79</v>
+        <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>0.79</v>
+        <v>2.81</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -3829,25 +3829,25 @@
         <v>1.63</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AS14">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT14">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4038,22 +4038,22 @@
         <v>1</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>1.66</v>
       </c>
       <c r="AS15">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AT15">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AU15">
         <v>3</v>
@@ -4244,22 +4244,22 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ16">
+        <v>1.33</v>
+      </c>
+      <c r="AR16">
         <v>1.67</v>
       </c>
-      <c r="AR16">
-        <v>2.2</v>
-      </c>
       <c r="AS16">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
       <c r="AT16">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="AU16">
         <v>2</v>
@@ -4450,22 +4450,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP17">
         <v>2.44</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR17">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AS17">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AT17">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -4653,25 +4653,25 @@
         <v>1.22</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO18">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP18">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
-        <v>1.61</v>
+        <v>1.12</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="AT18">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4859,25 +4859,25 @@
         <v>1.83</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO19">
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR19">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AS19">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AT19">
-        <v>2.77</v>
+        <v>2.99</v>
       </c>
       <c r="AU19">
         <v>13</v>
@@ -5065,25 +5065,25 @@
         <v>2.03</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP20">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR20">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AS20">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="AT20">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5274,22 +5274,22 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP21">
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR21">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="AS21">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="AT21">
-        <v>3.51</v>
+        <v>3.45</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -5477,25 +5477,25 @@
         <v>2.35</v>
       </c>
       <c r="AN22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ22">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="AS22">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="AT22">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -5683,25 +5683,25 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO23">
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23">
         <v>2</v>
       </c>
       <c r="AR23">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AS23">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AT23">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="AU23">
         <v>2</v>
@@ -5889,25 +5889,25 @@
         <v>1.93</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP24">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ24">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
-        <v>2.32</v>
+        <v>1.68</v>
       </c>
       <c r="AS24">
-        <v>1.05</v>
+        <v>1.35</v>
       </c>
       <c r="AT24">
-        <v>3.37</v>
+        <v>3.03</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6101,19 +6101,19 @@
         <v>0.5</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>1.13</v>
       </c>
       <c r="AS25">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6301,25 +6301,25 @@
         <v>1.1</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO26">
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ26">
         <v>2.44</v>
       </c>
       <c r="AR26">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS26">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT26">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU26">
         <v>4</v>
@@ -6510,22 +6510,22 @@
         <v>0.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AS27">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AT27">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6713,25 +6713,25 @@
         <v>1.51</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AP28">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR28">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AS28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT28">
-        <v>2.21</v>
+        <v>2.16</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -6919,25 +6919,25 @@
         <v>1.76</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AS29">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AT29">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="AU29">
         <v>2</v>
@@ -7128,22 +7128,22 @@
         <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP30">
         <v>2.44</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AS30">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="AT30">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7331,25 +7331,25 @@
         <v>2.25</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AP31">
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR31">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AT31">
-        <v>1.62</v>
+        <v>2.86</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7537,25 +7537,25 @@
         <v>1.3</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ32">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AS32">
-        <v>0.86</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>1.91</v>
+        <v>2.29</v>
       </c>
       <c r="AU32">
         <v>4</v>
@@ -7743,25 +7743,25 @@
         <v>3</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP33">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ33">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR33">
-        <v>2.34</v>
+        <v>1.94</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AT33">
-        <v>3.67</v>
+        <v>3.41</v>
       </c>
       <c r="AU33">
         <v>6</v>
@@ -7949,25 +7949,25 @@
         <v>2.25</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP34">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ34">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
       </c>
       <c r="AS34">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AT34">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="AU34">
         <v>7</v>
@@ -8155,25 +8155,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO35">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>2.44</v>
       </c>
       <c r="AR35">
-        <v>2.59</v>
+        <v>1.88</v>
       </c>
       <c r="AS35">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="AT35">
-        <v>4.36</v>
+        <v>3.43</v>
       </c>
       <c r="AU35">
         <v>4</v>
@@ -8361,25 +8361,25 @@
         <v>1.3</v>
       </c>
       <c r="AN36">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP36">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ36">
         <v>2</v>
       </c>
       <c r="AR36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AS36">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8567,25 +8567,25 @@
         <v>1.57</v>
       </c>
       <c r="AN37">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ37">
         <v>1.33</v>
       </c>
-      <c r="AQ37">
-        <v>1.22</v>
-      </c>
       <c r="AR37">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AS37">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT37">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -8773,25 +8773,25 @@
         <v>1.41</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO38">
+        <v>1.4</v>
+      </c>
+      <c r="AP38">
+        <v>0.83</v>
+      </c>
+      <c r="AQ38">
         <v>1.33</v>
       </c>
-      <c r="AP38">
-        <v>1.11</v>
-      </c>
-      <c r="AQ38">
-        <v>1.67</v>
-      </c>
       <c r="AR38">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="AS38">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="AT38">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="AU38">
         <v>5</v>
@@ -8979,25 +8979,25 @@
         <v>1.21</v>
       </c>
       <c r="AN39">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="AS39">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="AT39">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="AU39">
         <v>4</v>
@@ -9185,25 +9185,25 @@
         <v>1.35</v>
       </c>
       <c r="AN40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AO40">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AP40">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ40">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR40">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AT40">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9391,25 +9391,25 @@
         <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.25</v>
+        <v>0.86</v>
       </c>
       <c r="AO41">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP41">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR41">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AT41">
-        <v>3.09</v>
+        <v>3.14</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9597,25 +9597,25 @@
         <v>3.2</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP42">
         <v>2.44</v>
       </c>
       <c r="AQ42">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="AS42">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="AT42">
-        <v>2.43</v>
+        <v>2.88</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -9803,7 +9803,7 @@
         <v>2.5</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO43">
         <v>1</v>
@@ -9812,16 +9812,16 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR43">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AS43">
         <v>1.38</v>
       </c>
       <c r="AT43">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10009,25 +10009,25 @@
         <v>2.15</v>
       </c>
       <c r="AN44">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="AS44">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AT44">
-        <v>2.86</v>
+        <v>2.65</v>
       </c>
       <c r="AU44">
         <v>7</v>
@@ -10215,25 +10215,25 @@
         <v>1.46</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ45">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR45">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS45">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="AT45">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10421,25 +10421,25 @@
         <v>1.08</v>
       </c>
       <c r="AN46">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AO46">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AP46">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
         <v>2.44</v>
       </c>
       <c r="AR46">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AS46">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT46">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU46">
         <v>10</v>
@@ -10627,25 +10627,25 @@
         <v>1.82</v>
       </c>
       <c r="AN47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO47">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR47">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AS47">
-        <v>1.06</v>
+        <v>1.24</v>
       </c>
       <c r="AT47">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="AU47">
         <v>11</v>
@@ -10833,25 +10833,25 @@
         <v>1.7</v>
       </c>
       <c r="AN48">
+        <v>0.75</v>
+      </c>
+      <c r="AO48">
+        <v>1.14</v>
+      </c>
+      <c r="AP48">
+        <v>0.83</v>
+      </c>
+      <c r="AQ48">
         <v>1.33</v>
       </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1.11</v>
-      </c>
-      <c r="AQ48">
-        <v>1.22</v>
-      </c>
       <c r="AR48">
-        <v>1.58</v>
+        <v>1.29</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AT48">
-        <v>2.91</v>
+        <v>2.83</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11039,25 +11039,25 @@
         <v>1.7</v>
       </c>
       <c r="AN49">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AO49">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>2</v>
       </c>
       <c r="AR49">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="AS49">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT49">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="AU49">
         <v>5</v>
@@ -11245,25 +11245,25 @@
         <v>1.84</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO50">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ50">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AS50">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT50">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AU50">
         <v>3</v>
@@ -11451,25 +11451,25 @@
         <v>2.78</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AP51">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ51">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
-        <v>2.09</v>
+        <v>1.8</v>
       </c>
       <c r="AS51">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AT51">
-        <v>3.39</v>
+        <v>3.09</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11657,25 +11657,25 @@
         <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>1.13</v>
       </c>
       <c r="AO52">
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>2</v>
       </c>
       <c r="AR52">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="AS52">
-        <v>1.21</v>
+        <v>1.48</v>
       </c>
       <c r="AT52">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="AU52">
         <v>2</v>
@@ -11866,22 +11866,22 @@
         <v>1</v>
       </c>
       <c r="AO53">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR53">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AS53">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12069,25 +12069,25 @@
         <v>1.7</v>
       </c>
       <c r="AN54">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR54">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT54">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="AU54">
         <v>5</v>
@@ -12275,25 +12275,25 @@
         <v>2.78</v>
       </c>
       <c r="AN55">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AO55">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AP55">
         <v>2.44</v>
       </c>
       <c r="AQ55">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AS55">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AT55">
-        <v>2.64</v>
+        <v>2.96</v>
       </c>
       <c r="AU55">
         <v>11</v>
@@ -12481,25 +12481,25 @@
         <v>1.71</v>
       </c>
       <c r="AN56">
+        <v>1.75</v>
+      </c>
+      <c r="AO56">
+        <v>2.5</v>
+      </c>
+      <c r="AP56">
         <v>1.33</v>
       </c>
-      <c r="AO56">
-        <v>2</v>
-      </c>
-      <c r="AP56">
-        <v>1</v>
-      </c>
       <c r="AQ56">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR56">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AS56">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AT56">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -12687,25 +12687,25 @@
         <v>1.92</v>
       </c>
       <c r="AN57">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AO57">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP57">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="AS57">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT57">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AU57">
         <v>2</v>
@@ -12893,25 +12893,25 @@
         <v>1.53</v>
       </c>
       <c r="AN58">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AT58">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AU58">
         <v>5</v>
@@ -13099,25 +13099,25 @@
         <v>1.83</v>
       </c>
       <c r="AN59">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="AO59">
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="AS59">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT59">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13305,25 +13305,25 @@
         <v>1.25</v>
       </c>
       <c r="AN60">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AP60">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ60">
         <v>1.33</v>
       </c>
-      <c r="AQ60">
-        <v>1.67</v>
-      </c>
       <c r="AR60">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT60">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13511,10 +13511,10 @@
         <v>1.42</v>
       </c>
       <c r="AN61">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO61">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AP61">
         <v>2</v>
@@ -13523,13 +13523,13 @@
         <v>2.44</v>
       </c>
       <c r="AR61">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="AS61">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AT61">
-        <v>3.65</v>
+        <v>3.33</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13717,25 +13717,25 @@
         <v>3</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="AO62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ62">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR62">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AS62">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AT62">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13923,25 +13923,25 @@
         <v>1.45</v>
       </c>
       <c r="AN63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO63">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ63">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
-        <v>2.62</v>
+        <v>2.79</v>
       </c>
       <c r="AU63">
         <v>6</v>
@@ -14129,25 +14129,25 @@
         <v>2.61</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO64">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ64">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR64">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
-        <v>3.38</v>
+        <v>3.17</v>
       </c>
       <c r="AU64">
         <v>6</v>
@@ -14335,25 +14335,25 @@
         <v>1.6</v>
       </c>
       <c r="AN65">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AP65">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ65">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR65">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AT65">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14541,25 +14541,25 @@
         <v>2.49</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AT66">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -14747,25 +14747,25 @@
         <v>1.23</v>
       </c>
       <c r="AN67">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="AQ67">
         <v>2</v>
       </c>
       <c r="AR67">
+        <v>1.27</v>
+      </c>
+      <c r="AS67">
         <v>1.44</v>
       </c>
-      <c r="AS67">
-        <v>1.29</v>
-      </c>
       <c r="AT67">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -14953,25 +14953,25 @@
         <v>1.6</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO68">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AP68">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ68">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR68">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AS68">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15159,25 +15159,25 @@
         <v>2.55</v>
       </c>
       <c r="AN69">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AO69">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>1.54</v>
       </c>
       <c r="AS69">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AU69">
         <v>7</v>
@@ -15365,25 +15365,25 @@
         <v>2.65</v>
       </c>
       <c r="AN70">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="AO70">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AP70">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ70">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR70">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AT70">
-        <v>3.25</v>
+        <v>3.07</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15571,25 +15571,25 @@
         <v>1.12</v>
       </c>
       <c r="AN71">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ71">
         <v>2.44</v>
       </c>
       <c r="AR71">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS71">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="AT71">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="AU71">
         <v>7</v>
@@ -15777,25 +15777,25 @@
         <v>3.1</v>
       </c>
       <c r="AN72">
-        <v>1.2</v>
+        <v>1.64</v>
       </c>
       <c r="AO72">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AP72">
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR72">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="AS72">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT72">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AU72">
         <v>10</v>
@@ -15983,25 +15983,25 @@
         <v>2.85</v>
       </c>
       <c r="AN73">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO73">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AP73">
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR73">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AS73">
         <v>1.35</v>
       </c>
       <c r="AT73">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="AU73">
         <v>8</v>
@@ -16189,22 +16189,22 @@
         <v>1.12</v>
       </c>
       <c r="AN74">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AO74">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ74">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AS74">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT74">
         <v>2.95</v>
@@ -16395,25 +16395,25 @@
         <v>1.77</v>
       </c>
       <c r="AN75">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO75">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ75">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR75">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AS75">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AT75">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="AU75">
         <v>4</v>
@@ -16601,25 +16601,25 @@
         <v>1.18</v>
       </c>
       <c r="AN76">
-        <v>1.6</v>
+        <v>1.08</v>
       </c>
       <c r="AO76">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>2.44</v>
       </c>
       <c r="AR76">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS76">
         <v>1.79</v>
       </c>
       <c r="AT76">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="AU76">
         <v>11</v>
@@ -16807,25 +16807,25 @@
         <v>1.66</v>
       </c>
       <c r="AN77">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="AO77">
-        <v>0.6</v>
+        <v>1.08</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ77">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AS77">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AT77">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="AU77">
         <v>4</v>
@@ -17013,25 +17013,25 @@
         <v>1.28</v>
       </c>
       <c r="AN78">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO78">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ78">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR78">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS78">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>2.84</v>
+        <v>3.03</v>
       </c>
       <c r="AU78">
         <v>9</v>
@@ -17219,25 +17219,25 @@
         <v>4.05</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="AO79">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP79">
         <v>2.44</v>
       </c>
       <c r="AQ79">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS79">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT79">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="AU79">
         <v>5</v>
@@ -17425,25 +17425,25 @@
         <v>1.18</v>
       </c>
       <c r="AN80">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO80">
-        <v>1.83</v>
+        <v>2.31</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ80">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR80">
         <v>1.35</v>
       </c>
       <c r="AS80">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="AT80">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17631,25 +17631,25 @@
         <v>1.65</v>
       </c>
       <c r="AN81">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AO81">
-        <v>0.67</v>
+        <v>1.23</v>
       </c>
       <c r="AP81">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="AQ81">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR81">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AS81">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AT81">
-        <v>2.89</v>
+        <v>2.74</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17837,25 +17837,25 @@
         <v>1.13</v>
       </c>
       <c r="AN82">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO82">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AP82">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ82">
         <v>2</v>
       </c>
       <c r="AR82">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS82">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AT82">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
       <c r="AU82">
         <v>3</v>
@@ -18043,25 +18043,25 @@
         <v>1.83</v>
       </c>
       <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>1.23</v>
+      </c>
+      <c r="AP83">
         <v>1.33</v>
       </c>
-      <c r="AO83">
-        <v>1.17</v>
-      </c>
-      <c r="AP83">
-        <v>1.44</v>
-      </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AT83">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU83">
         <v>7</v>
@@ -18249,25 +18249,25 @@
         <v>2.67</v>
       </c>
       <c r="AN84">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AO84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="AS84">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AT84">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18455,25 +18455,25 @@
         <v>1.15</v>
       </c>
       <c r="AN85">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AO85">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="AP85">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ85">
         <v>2.44</v>
       </c>
       <c r="AR85">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AS85">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="AU85">
         <v>2</v>
@@ -18661,25 +18661,25 @@
         <v>1.45</v>
       </c>
       <c r="AN86">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AO86">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ86">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
+        <v>1.46</v>
+      </c>
+      <c r="AS86">
         <v>1.53</v>
       </c>
-      <c r="AS86">
-        <v>1.35</v>
-      </c>
       <c r="AT86">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -18867,25 +18867,25 @@
         <v>1.8</v>
       </c>
       <c r="AN87">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AO87">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AP87">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ87">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AS87">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AT87">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU87">
         <v>6</v>
@@ -19073,22 +19073,22 @@
         <v>2.85</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO88">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR88">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AS88">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT88">
         <v>2.89</v>
@@ -19279,25 +19279,25 @@
         <v>1.66</v>
       </c>
       <c r="AN89">
-        <v>2.71</v>
+        <v>2.21</v>
       </c>
       <c r="AO89">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AP89">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ89">
         <v>2</v>
       </c>
       <c r="AR89">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AS89">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT89">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="AU89">
         <v>4</v>
@@ -19485,25 +19485,25 @@
         <v>2.6</v>
       </c>
       <c r="AN90">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ90">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR90">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AS90">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT90">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -19691,25 +19691,25 @@
         <v>2.65</v>
       </c>
       <c r="AN91">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AO91">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AP91">
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR91">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="AS91">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT91">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="AU91">
         <v>10</v>
@@ -19897,25 +19897,25 @@
         <v>1.5</v>
       </c>
       <c r="AN92">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AO92">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="AP92">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ92">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AT92">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU92">
         <v>10</v>
@@ -20103,25 +20103,25 @@
         <v>1.28</v>
       </c>
       <c r="AN93">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AO93">
-        <v>1.71</v>
+        <v>2.27</v>
       </c>
       <c r="AP93">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="AQ93">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR93">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="AS93">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="AT93">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="AU93">
         <v>5</v>
@@ -20309,25 +20309,25 @@
         <v>1.44</v>
       </c>
       <c r="AN94">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AO94">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AP94">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="AS94">
         <v>1.57</v>
       </c>
       <c r="AT94">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20515,25 +20515,25 @@
         <v>3.48</v>
       </c>
       <c r="AN95">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="AO95">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="AP95">
         <v>2.44</v>
       </c>
       <c r="AQ95">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR95">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AS95">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AT95">
-        <v>2.91</v>
+        <v>3.08</v>
       </c>
       <c r="AU95">
         <v>11</v>
@@ -20721,25 +20721,25 @@
         <v>1.44</v>
       </c>
       <c r="AN96">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AO96">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS96">
-        <v>1.09</v>
+        <v>1.21</v>
       </c>
       <c r="AT96">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AU96">
         <v>6</v>
@@ -20927,25 +20927,25 @@
         <v>4.15</v>
       </c>
       <c r="AN97">
-        <v>2.29</v>
+        <v>2.53</v>
       </c>
       <c r="AO97">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AP97">
         <v>2.44</v>
       </c>
       <c r="AQ97">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR97">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS97">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT97">
-        <v>3.19</v>
+        <v>3.16</v>
       </c>
       <c r="AU97">
         <v>13</v>
@@ -21133,25 +21133,25 @@
         <v>1.37</v>
       </c>
       <c r="AN98">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AO98">
         <v>1.88</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ98">
         <v>2</v>
       </c>
       <c r="AR98">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AS98">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT98">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AU98">
         <v>3</v>
@@ -21339,25 +21339,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1.63</v>
+        <v>1.06</v>
       </c>
       <c r="AO99">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ99">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AR99">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS99">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="AT99">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="AU99">
         <v>2</v>
@@ -21545,25 +21545,25 @@
         <v>1.9</v>
       </c>
       <c r="AN100">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO100">
-        <v>1.13</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP100">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
         <v>1.45</v>
       </c>
       <c r="AS100">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="AU100">
         <v>5</v>
@@ -21751,25 +21751,25 @@
         <v>1.62</v>
       </c>
       <c r="AN101">
-        <v>2.75</v>
+        <v>2.31</v>
       </c>
       <c r="AO101">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AP101">
-        <v>2.78</v>
+        <v>2.28</v>
       </c>
       <c r="AQ101">
         <v>2.44</v>
       </c>
       <c r="AR101">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="AS101">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AT101">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -21957,25 +21957,25 @@
         <v>1.79</v>
       </c>
       <c r="AN102">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AO102">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP102">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>0.5600000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AR102">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AS102">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AT102">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22163,25 +22163,25 @@
         <v>2.67</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AO103">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AR103">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS103">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="AT103">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="AU103">
         <v>10</v>
@@ -22369,25 +22369,25 @@
         <v>1.65</v>
       </c>
       <c r="AN104">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="AO104">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>0.83</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR104">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS104">
         <v>1.45</v>
       </c>
       <c r="AT104">
-        <v>2.96</v>
+        <v>2.77</v>
       </c>
       <c r="AU104">
         <v>6</v>
@@ -22575,25 +22575,25 @@
         <v>2.41</v>
       </c>
       <c r="AN105">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AO105">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AP105">
         <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AS105">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AT105">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="AU105">
         <v>8</v>
@@ -22781,25 +22781,25 @@
         <v>1.8</v>
       </c>
       <c r="AN106">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AO106">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ106">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AS106">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AT106">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="AU106">
         <v>11</v>
@@ -22987,25 +22987,25 @@
         <v>2.34</v>
       </c>
       <c r="AN107">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AO107">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="AP107">
         <v>2.44</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="AS107">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AT107">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="AU107">
         <v>5</v>
@@ -23193,25 +23193,25 @@
         <v>1.21</v>
       </c>
       <c r="AN108">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO108">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ108">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="AR108">
+        <v>1.49</v>
+      </c>
+      <c r="AS108">
         <v>1.59</v>
       </c>
-      <c r="AS108">
-        <v>1.35</v>
-      </c>
       <c r="AT108">
-        <v>2.94</v>
+        <v>3.08</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23399,25 +23399,25 @@
         <v>1.44</v>
       </c>
       <c r="AN109">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AO109">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP109">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ109">
-        <v>0.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="AU109">
         <v>9</v>
